--- a/BackTest/2019-10-26 BackTest ADA.xlsx
+++ b/BackTest/2019-10-26 BackTest ADA.xlsx
@@ -451,20 +451,14 @@
         <v>47.38000000000011</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>47.8</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
       </c>
@@ -492,20 +486,14 @@
         <v>47.44000000000011</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>47.6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -536,15 +524,11 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -579,11 +563,7 @@
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -618,11 +598,7 @@
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -657,11 +633,7 @@
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -696,11 +668,7 @@
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -735,11 +703,7 @@
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -774,11 +738,7 @@
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -813,11 +773,7 @@
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -852,11 +808,7 @@
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -891,11 +843,7 @@
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -930,11 +878,7 @@
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -969,11 +913,7 @@
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1008,11 +948,7 @@
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1047,11 +983,7 @@
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1086,11 +1018,7 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1125,11 +1053,7 @@
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1164,11 +1088,7 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1203,11 +1123,7 @@
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1242,11 +1158,7 @@
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1281,11 +1193,7 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1320,11 +1228,7 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1359,11 +1263,7 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1398,11 +1298,7 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1437,11 +1333,7 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1476,11 +1368,7 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1515,11 +1403,7 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1554,11 +1438,7 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1593,11 +1473,7 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1632,11 +1508,7 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1671,11 +1543,7 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1710,11 +1578,7 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1749,11 +1613,7 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1788,11 +1648,7 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1827,11 +1683,7 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1866,11 +1718,7 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1905,11 +1753,7 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1944,11 +1788,7 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1983,11 +1823,7 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2022,11 +1858,7 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2061,11 +1893,7 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2100,11 +1928,7 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2139,11 +1963,7 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2178,11 +1998,7 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2217,11 +2033,7 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2256,11 +2068,7 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2295,11 +2103,7 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2334,11 +2138,7 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2373,11 +2173,7 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2412,11 +2208,7 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2451,11 +2243,7 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2490,11 +2278,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2529,11 +2313,7 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2568,11 +2348,7 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2607,11 +2383,7 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2646,11 +2418,7 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2685,11 +2453,7 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2724,11 +2488,7 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2763,11 +2523,7 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2802,11 +2558,7 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2841,11 +2593,7 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2880,11 +2628,7 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2919,11 +2663,7 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2958,11 +2698,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2997,11 +2733,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3036,11 +2768,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3075,11 +2803,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3114,11 +2838,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3153,11 +2873,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3192,11 +2908,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3231,11 +2943,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3270,11 +2978,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3309,11 +3013,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3348,11 +3048,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3387,11 +3083,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3426,11 +3118,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3465,11 +3153,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3504,11 +3188,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3543,11 +3223,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3582,11 +3258,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3621,11 +3293,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3660,11 +3328,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3699,11 +3363,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3738,11 +3398,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3777,11 +3433,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3816,11 +3468,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3855,11 +3503,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3894,11 +3538,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3929,16 +3569,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -18908,14 +18546,20 @@
         <v>47.04000000000018</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I519" t="n">
         <v>0</v>
       </c>
-      <c r="J519" t="inlineStr"/>
+      <c r="J519" t="n">
+        <v>46.9</v>
+      </c>
       <c r="K519" t="inlineStr"/>
-      <c r="L519" t="inlineStr"/>
+      <c r="L519" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M519" t="n">
         <v>1</v>
       </c>
@@ -18943,14 +18587,20 @@
         <v>46.98000000000017</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I520" t="n">
         <v>0</v>
       </c>
-      <c r="J520" t="inlineStr"/>
+      <c r="J520" t="n">
+        <v>47</v>
+      </c>
       <c r="K520" t="inlineStr"/>
-      <c r="L520" t="inlineStr"/>
+      <c r="L520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M520" t="n">
         <v>1</v>
       </c>
@@ -18978,14 +18628,20 @@
         <v>46.96000000000018</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I521" t="n">
         <v>0</v>
       </c>
-      <c r="J521" t="inlineStr"/>
+      <c r="J521" t="n">
+        <v>46.9</v>
+      </c>
       <c r="K521" t="inlineStr"/>
-      <c r="L521" t="inlineStr"/>
+      <c r="L521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M521" t="n">
         <v>1</v>
       </c>
@@ -19013,14 +18669,20 @@
         <v>47.00000000000018</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I522" t="n">
         <v>0</v>
       </c>
-      <c r="J522" t="inlineStr"/>
+      <c r="J522" t="n">
+        <v>47</v>
+      </c>
       <c r="K522" t="inlineStr"/>
-      <c r="L522" t="inlineStr"/>
+      <c r="L522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M522" t="n">
         <v>1</v>
       </c>
@@ -19048,14 +18710,20 @@
         <v>47.06000000000018</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I523" t="n">
         <v>0</v>
       </c>
-      <c r="J523" t="inlineStr"/>
+      <c r="J523" t="n">
+        <v>47.2</v>
+      </c>
       <c r="K523" t="inlineStr"/>
-      <c r="L523" t="inlineStr"/>
+      <c r="L523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M523" t="n">
         <v>1</v>
       </c>
@@ -19090,7 +18758,11 @@
       </c>
       <c r="J524" t="inlineStr"/>
       <c r="K524" t="inlineStr"/>
-      <c r="L524" t="inlineStr"/>
+      <c r="L524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M524" t="n">
         <v>1</v>
       </c>
@@ -19125,7 +18797,11 @@
       </c>
       <c r="J525" t="inlineStr"/>
       <c r="K525" t="inlineStr"/>
-      <c r="L525" t="inlineStr"/>
+      <c r="L525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M525" t="n">
         <v>1</v>
       </c>
@@ -19160,7 +18836,11 @@
       </c>
       <c r="J526" t="inlineStr"/>
       <c r="K526" t="inlineStr"/>
-      <c r="L526" t="inlineStr"/>
+      <c r="L526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M526" t="n">
         <v>1</v>
       </c>
@@ -19195,7 +18875,11 @@
       </c>
       <c r="J527" t="inlineStr"/>
       <c r="K527" t="inlineStr"/>
-      <c r="L527" t="inlineStr"/>
+      <c r="L527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M527" t="n">
         <v>1</v>
       </c>
@@ -19230,7 +18914,11 @@
       </c>
       <c r="J528" t="inlineStr"/>
       <c r="K528" t="inlineStr"/>
-      <c r="L528" t="inlineStr"/>
+      <c r="L528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M528" t="n">
         <v>1</v>
       </c>
@@ -19265,7 +18953,11 @@
       </c>
       <c r="J529" t="inlineStr"/>
       <c r="K529" t="inlineStr"/>
-      <c r="L529" t="inlineStr"/>
+      <c r="L529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M529" t="n">
         <v>1</v>
       </c>
@@ -19300,7 +18992,11 @@
       </c>
       <c r="J530" t="inlineStr"/>
       <c r="K530" t="inlineStr"/>
-      <c r="L530" t="inlineStr"/>
+      <c r="L530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M530" t="n">
         <v>1</v>
       </c>
@@ -19335,7 +19031,11 @@
       </c>
       <c r="J531" t="inlineStr"/>
       <c r="K531" t="inlineStr"/>
-      <c r="L531" t="inlineStr"/>
+      <c r="L531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M531" t="n">
         <v>1</v>
       </c>
@@ -19370,7 +19070,11 @@
       </c>
       <c r="J532" t="inlineStr"/>
       <c r="K532" t="inlineStr"/>
-      <c r="L532" t="inlineStr"/>
+      <c r="L532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M532" t="n">
         <v>1</v>
       </c>
@@ -19405,7 +19109,11 @@
       </c>
       <c r="J533" t="inlineStr"/>
       <c r="K533" t="inlineStr"/>
-      <c r="L533" t="inlineStr"/>
+      <c r="L533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M533" t="n">
         <v>1</v>
       </c>
@@ -19440,7 +19148,11 @@
       </c>
       <c r="J534" t="inlineStr"/>
       <c r="K534" t="inlineStr"/>
-      <c r="L534" t="inlineStr"/>
+      <c r="L534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M534" t="n">
         <v>1</v>
       </c>
@@ -19475,7 +19187,11 @@
       </c>
       <c r="J535" t="inlineStr"/>
       <c r="K535" t="inlineStr"/>
-      <c r="L535" t="inlineStr"/>
+      <c r="L535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M535" t="n">
         <v>1</v>
       </c>
@@ -19510,7 +19226,11 @@
       </c>
       <c r="J536" t="inlineStr"/>
       <c r="K536" t="inlineStr"/>
-      <c r="L536" t="inlineStr"/>
+      <c r="L536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M536" t="n">
         <v>1</v>
       </c>
@@ -19545,7 +19265,11 @@
       </c>
       <c r="J537" t="inlineStr"/>
       <c r="K537" t="inlineStr"/>
-      <c r="L537" t="inlineStr"/>
+      <c r="L537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M537" t="n">
         <v>1</v>
       </c>
@@ -19580,7 +19304,11 @@
       </c>
       <c r="J538" t="inlineStr"/>
       <c r="K538" t="inlineStr"/>
-      <c r="L538" t="inlineStr"/>
+      <c r="L538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M538" t="n">
         <v>1</v>
       </c>
@@ -19615,7 +19343,11 @@
       </c>
       <c r="J539" t="inlineStr"/>
       <c r="K539" t="inlineStr"/>
-      <c r="L539" t="inlineStr"/>
+      <c r="L539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M539" t="n">
         <v>1</v>
       </c>
@@ -19650,7 +19382,11 @@
       </c>
       <c r="J540" t="inlineStr"/>
       <c r="K540" t="inlineStr"/>
-      <c r="L540" t="inlineStr"/>
+      <c r="L540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M540" t="n">
         <v>1</v>
       </c>
@@ -19685,7 +19421,11 @@
       </c>
       <c r="J541" t="inlineStr"/>
       <c r="K541" t="inlineStr"/>
-      <c r="L541" t="inlineStr"/>
+      <c r="L541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M541" t="n">
         <v>1</v>
       </c>
@@ -19720,7 +19460,11 @@
       </c>
       <c r="J542" t="inlineStr"/>
       <c r="K542" t="inlineStr"/>
-      <c r="L542" t="inlineStr"/>
+      <c r="L542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M542" t="n">
         <v>1</v>
       </c>
@@ -19755,7 +19499,11 @@
       </c>
       <c r="J543" t="inlineStr"/>
       <c r="K543" t="inlineStr"/>
-      <c r="L543" t="inlineStr"/>
+      <c r="L543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M543" t="n">
         <v>1</v>
       </c>
@@ -19790,7 +19538,11 @@
       </c>
       <c r="J544" t="inlineStr"/>
       <c r="K544" t="inlineStr"/>
-      <c r="L544" t="inlineStr"/>
+      <c r="L544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M544" t="n">
         <v>1</v>
       </c>
@@ -19825,7 +19577,11 @@
       </c>
       <c r="J545" t="inlineStr"/>
       <c r="K545" t="inlineStr"/>
-      <c r="L545" t="inlineStr"/>
+      <c r="L545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M545" t="n">
         <v>1</v>
       </c>
@@ -19860,7 +19616,11 @@
       </c>
       <c r="J546" t="inlineStr"/>
       <c r="K546" t="inlineStr"/>
-      <c r="L546" t="inlineStr"/>
+      <c r="L546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M546" t="n">
         <v>1</v>
       </c>
@@ -19895,7 +19655,11 @@
       </c>
       <c r="J547" t="inlineStr"/>
       <c r="K547" t="inlineStr"/>
-      <c r="L547" t="inlineStr"/>
+      <c r="L547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M547" t="n">
         <v>1</v>
       </c>
@@ -19930,7 +19694,11 @@
       </c>
       <c r="J548" t="inlineStr"/>
       <c r="K548" t="inlineStr"/>
-      <c r="L548" t="inlineStr"/>
+      <c r="L548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M548" t="n">
         <v>1</v>
       </c>
@@ -19965,7 +19733,11 @@
       </c>
       <c r="J549" t="inlineStr"/>
       <c r="K549" t="inlineStr"/>
-      <c r="L549" t="inlineStr"/>
+      <c r="L549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M549" t="n">
         <v>1</v>
       </c>
@@ -20000,7 +19772,11 @@
       </c>
       <c r="J550" t="inlineStr"/>
       <c r="K550" t="inlineStr"/>
-      <c r="L550" t="inlineStr"/>
+      <c r="L550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M550" t="n">
         <v>1</v>
       </c>
@@ -20035,7 +19811,11 @@
       </c>
       <c r="J551" t="inlineStr"/>
       <c r="K551" t="inlineStr"/>
-      <c r="L551" t="inlineStr"/>
+      <c r="L551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M551" t="n">
         <v>1</v>
       </c>
@@ -20070,7 +19850,11 @@
       </c>
       <c r="J552" t="inlineStr"/>
       <c r="K552" t="inlineStr"/>
-      <c r="L552" t="inlineStr"/>
+      <c r="L552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M552" t="n">
         <v>1</v>
       </c>
@@ -20105,7 +19889,11 @@
       </c>
       <c r="J553" t="inlineStr"/>
       <c r="K553" t="inlineStr"/>
-      <c r="L553" t="inlineStr"/>
+      <c r="L553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M553" t="n">
         <v>1</v>
       </c>
@@ -20140,7 +19928,11 @@
       </c>
       <c r="J554" t="inlineStr"/>
       <c r="K554" t="inlineStr"/>
-      <c r="L554" t="inlineStr"/>
+      <c r="L554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M554" t="n">
         <v>1</v>
       </c>
@@ -20175,7 +19967,11 @@
       </c>
       <c r="J555" t="inlineStr"/>
       <c r="K555" t="inlineStr"/>
-      <c r="L555" t="inlineStr"/>
+      <c r="L555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M555" t="n">
         <v>1</v>
       </c>
@@ -20210,7 +20006,11 @@
       </c>
       <c r="J556" t="inlineStr"/>
       <c r="K556" t="inlineStr"/>
-      <c r="L556" t="inlineStr"/>
+      <c r="L556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M556" t="n">
         <v>1</v>
       </c>
@@ -20245,7 +20045,11 @@
       </c>
       <c r="J557" t="inlineStr"/>
       <c r="K557" t="inlineStr"/>
-      <c r="L557" t="inlineStr"/>
+      <c r="L557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M557" t="n">
         <v>1</v>
       </c>
@@ -20280,7 +20084,11 @@
       </c>
       <c r="J558" t="inlineStr"/>
       <c r="K558" t="inlineStr"/>
-      <c r="L558" t="inlineStr"/>
+      <c r="L558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M558" t="n">
         <v>1</v>
       </c>
@@ -20315,7 +20123,11 @@
       </c>
       <c r="J559" t="inlineStr"/>
       <c r="K559" t="inlineStr"/>
-      <c r="L559" t="inlineStr"/>
+      <c r="L559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M559" t="n">
         <v>1</v>
       </c>
@@ -20350,7 +20162,11 @@
       </c>
       <c r="J560" t="inlineStr"/>
       <c r="K560" t="inlineStr"/>
-      <c r="L560" t="inlineStr"/>
+      <c r="L560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M560" t="n">
         <v>1</v>
       </c>
@@ -20385,7 +20201,11 @@
       </c>
       <c r="J561" t="inlineStr"/>
       <c r="K561" t="inlineStr"/>
-      <c r="L561" t="inlineStr"/>
+      <c r="L561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M561" t="n">
         <v>1</v>
       </c>
@@ -20420,7 +20240,11 @@
       </c>
       <c r="J562" t="inlineStr"/>
       <c r="K562" t="inlineStr"/>
-      <c r="L562" t="inlineStr"/>
+      <c r="L562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M562" t="n">
         <v>1</v>
       </c>
@@ -20455,7 +20279,11 @@
       </c>
       <c r="J563" t="inlineStr"/>
       <c r="K563" t="inlineStr"/>
-      <c r="L563" t="inlineStr"/>
+      <c r="L563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M563" t="n">
         <v>1</v>
       </c>
@@ -20490,7 +20318,11 @@
       </c>
       <c r="J564" t="inlineStr"/>
       <c r="K564" t="inlineStr"/>
-      <c r="L564" t="inlineStr"/>
+      <c r="L564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M564" t="n">
         <v>1</v>
       </c>
@@ -20525,7 +20357,11 @@
       </c>
       <c r="J565" t="inlineStr"/>
       <c r="K565" t="inlineStr"/>
-      <c r="L565" t="inlineStr"/>
+      <c r="L565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M565" t="n">
         <v>1</v>
       </c>
@@ -20560,7 +20396,11 @@
       </c>
       <c r="J566" t="inlineStr"/>
       <c r="K566" t="inlineStr"/>
-      <c r="L566" t="inlineStr"/>
+      <c r="L566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M566" t="n">
         <v>1</v>
       </c>
@@ -20595,7 +20435,11 @@
       </c>
       <c r="J567" t="inlineStr"/>
       <c r="K567" t="inlineStr"/>
-      <c r="L567" t="inlineStr"/>
+      <c r="L567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M567" t="n">
         <v>1</v>
       </c>
@@ -20630,7 +20474,11 @@
       </c>
       <c r="J568" t="inlineStr"/>
       <c r="K568" t="inlineStr"/>
-      <c r="L568" t="inlineStr"/>
+      <c r="L568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M568" t="n">
         <v>1</v>
       </c>
@@ -20665,7 +20513,11 @@
       </c>
       <c r="J569" t="inlineStr"/>
       <c r="K569" t="inlineStr"/>
-      <c r="L569" t="inlineStr"/>
+      <c r="L569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M569" t="n">
         <v>1</v>
       </c>
@@ -20700,7 +20552,11 @@
       </c>
       <c r="J570" t="inlineStr"/>
       <c r="K570" t="inlineStr"/>
-      <c r="L570" t="inlineStr"/>
+      <c r="L570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M570" t="n">
         <v>1</v>
       </c>
@@ -20735,7 +20591,11 @@
       </c>
       <c r="J571" t="inlineStr"/>
       <c r="K571" t="inlineStr"/>
-      <c r="L571" t="inlineStr"/>
+      <c r="L571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M571" t="n">
         <v>1</v>
       </c>
@@ -20770,7 +20630,11 @@
       </c>
       <c r="J572" t="inlineStr"/>
       <c r="K572" t="inlineStr"/>
-      <c r="L572" t="inlineStr"/>
+      <c r="L572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M572" t="n">
         <v>1</v>
       </c>
@@ -20805,7 +20669,11 @@
       </c>
       <c r="J573" t="inlineStr"/>
       <c r="K573" t="inlineStr"/>
-      <c r="L573" t="inlineStr"/>
+      <c r="L573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M573" t="n">
         <v>1</v>
       </c>
@@ -20840,7 +20708,11 @@
       </c>
       <c r="J574" t="inlineStr"/>
       <c r="K574" t="inlineStr"/>
-      <c r="L574" t="inlineStr"/>
+      <c r="L574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M574" t="n">
         <v>1</v>
       </c>
@@ -20875,7 +20747,11 @@
       </c>
       <c r="J575" t="inlineStr"/>
       <c r="K575" t="inlineStr"/>
-      <c r="L575" t="inlineStr"/>
+      <c r="L575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M575" t="n">
         <v>1</v>
       </c>
@@ -20910,7 +20786,11 @@
       </c>
       <c r="J576" t="inlineStr"/>
       <c r="K576" t="inlineStr"/>
-      <c r="L576" t="inlineStr"/>
+      <c r="L576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M576" t="n">
         <v>1</v>
       </c>
@@ -20945,7 +20825,11 @@
       </c>
       <c r="J577" t="inlineStr"/>
       <c r="K577" t="inlineStr"/>
-      <c r="L577" t="inlineStr"/>
+      <c r="L577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M577" t="n">
         <v>1</v>
       </c>
@@ -20980,7 +20864,11 @@
       </c>
       <c r="J578" t="inlineStr"/>
       <c r="K578" t="inlineStr"/>
-      <c r="L578" t="inlineStr"/>
+      <c r="L578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M578" t="n">
         <v>1</v>
       </c>
@@ -21015,7 +20903,11 @@
       </c>
       <c r="J579" t="inlineStr"/>
       <c r="K579" t="inlineStr"/>
-      <c r="L579" t="inlineStr"/>
+      <c r="L579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M579" t="n">
         <v>1</v>
       </c>
@@ -21050,7 +20942,11 @@
       </c>
       <c r="J580" t="inlineStr"/>
       <c r="K580" t="inlineStr"/>
-      <c r="L580" t="inlineStr"/>
+      <c r="L580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M580" t="n">
         <v>1</v>
       </c>
@@ -21085,7 +20981,11 @@
       </c>
       <c r="J581" t="inlineStr"/>
       <c r="K581" t="inlineStr"/>
-      <c r="L581" t="inlineStr"/>
+      <c r="L581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M581" t="n">
         <v>1</v>
       </c>
@@ -21120,7 +21020,11 @@
       </c>
       <c r="J582" t="inlineStr"/>
       <c r="K582" t="inlineStr"/>
-      <c r="L582" t="inlineStr"/>
+      <c r="L582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M582" t="n">
         <v>1</v>
       </c>
@@ -21155,7 +21059,11 @@
       </c>
       <c r="J583" t="inlineStr"/>
       <c r="K583" t="inlineStr"/>
-      <c r="L583" t="inlineStr"/>
+      <c r="L583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M583" t="n">
         <v>1</v>
       </c>
@@ -21190,7 +21098,11 @@
       </c>
       <c r="J584" t="inlineStr"/>
       <c r="K584" t="inlineStr"/>
-      <c r="L584" t="inlineStr"/>
+      <c r="L584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M584" t="n">
         <v>1</v>
       </c>
@@ -21225,7 +21137,11 @@
       </c>
       <c r="J585" t="inlineStr"/>
       <c r="K585" t="inlineStr"/>
-      <c r="L585" t="inlineStr"/>
+      <c r="L585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M585" t="n">
         <v>1</v>
       </c>
@@ -21260,7 +21176,11 @@
       </c>
       <c r="J586" t="inlineStr"/>
       <c r="K586" t="inlineStr"/>
-      <c r="L586" t="inlineStr"/>
+      <c r="L586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M586" t="n">
         <v>1</v>
       </c>
@@ -21295,7 +21215,11 @@
       </c>
       <c r="J587" t="inlineStr"/>
       <c r="K587" t="inlineStr"/>
-      <c r="L587" t="inlineStr"/>
+      <c r="L587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M587" t="n">
         <v>1</v>
       </c>
@@ -21330,7 +21254,11 @@
       </c>
       <c r="J588" t="inlineStr"/>
       <c r="K588" t="inlineStr"/>
-      <c r="L588" t="inlineStr"/>
+      <c r="L588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M588" t="n">
         <v>1</v>
       </c>
@@ -21365,7 +21293,11 @@
       </c>
       <c r="J589" t="inlineStr"/>
       <c r="K589" t="inlineStr"/>
-      <c r="L589" t="inlineStr"/>
+      <c r="L589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M589" t="n">
         <v>1</v>
       </c>
@@ -21400,7 +21332,11 @@
       </c>
       <c r="J590" t="inlineStr"/>
       <c r="K590" t="inlineStr"/>
-      <c r="L590" t="inlineStr"/>
+      <c r="L590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M590" t="n">
         <v>1</v>
       </c>
@@ -21435,7 +21371,11 @@
       </c>
       <c r="J591" t="inlineStr"/>
       <c r="K591" t="inlineStr"/>
-      <c r="L591" t="inlineStr"/>
+      <c r="L591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M591" t="n">
         <v>1</v>
       </c>
@@ -21470,7 +21410,11 @@
       </c>
       <c r="J592" t="inlineStr"/>
       <c r="K592" t="inlineStr"/>
-      <c r="L592" t="inlineStr"/>
+      <c r="L592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M592" t="n">
         <v>1</v>
       </c>
@@ -21505,7 +21449,11 @@
       </c>
       <c r="J593" t="inlineStr"/>
       <c r="K593" t="inlineStr"/>
-      <c r="L593" t="inlineStr"/>
+      <c r="L593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M593" t="n">
         <v>1</v>
       </c>
@@ -21540,7 +21488,11 @@
       </c>
       <c r="J594" t="inlineStr"/>
       <c r="K594" t="inlineStr"/>
-      <c r="L594" t="inlineStr"/>
+      <c r="L594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M594" t="n">
         <v>1</v>
       </c>
@@ -21575,7 +21527,11 @@
       </c>
       <c r="J595" t="inlineStr"/>
       <c r="K595" t="inlineStr"/>
-      <c r="L595" t="inlineStr"/>
+      <c r="L595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M595" t="n">
         <v>1</v>
       </c>
@@ -21610,7 +21566,11 @@
       </c>
       <c r="J596" t="inlineStr"/>
       <c r="K596" t="inlineStr"/>
-      <c r="L596" t="inlineStr"/>
+      <c r="L596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M596" t="n">
         <v>1</v>
       </c>
@@ -21645,7 +21605,11 @@
       </c>
       <c r="J597" t="inlineStr"/>
       <c r="K597" t="inlineStr"/>
-      <c r="L597" t="inlineStr"/>
+      <c r="L597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M597" t="n">
         <v>1</v>
       </c>
@@ -21680,7 +21644,11 @@
       </c>
       <c r="J598" t="inlineStr"/>
       <c r="K598" t="inlineStr"/>
-      <c r="L598" t="inlineStr"/>
+      <c r="L598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M598" t="n">
         <v>1</v>
       </c>
@@ -21715,7 +21683,11 @@
       </c>
       <c r="J599" t="inlineStr"/>
       <c r="K599" t="inlineStr"/>
-      <c r="L599" t="inlineStr"/>
+      <c r="L599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M599" t="n">
         <v>1</v>
       </c>
@@ -21750,7 +21722,11 @@
       </c>
       <c r="J600" t="inlineStr"/>
       <c r="K600" t="inlineStr"/>
-      <c r="L600" t="inlineStr"/>
+      <c r="L600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M600" t="n">
         <v>1</v>
       </c>
@@ -21785,7 +21761,11 @@
       </c>
       <c r="J601" t="inlineStr"/>
       <c r="K601" t="inlineStr"/>
-      <c r="L601" t="inlineStr"/>
+      <c r="L601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M601" t="n">
         <v>1</v>
       </c>
@@ -21820,7 +21800,11 @@
       </c>
       <c r="J602" t="inlineStr"/>
       <c r="K602" t="inlineStr"/>
-      <c r="L602" t="inlineStr"/>
+      <c r="L602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M602" t="n">
         <v>1</v>
       </c>
@@ -21855,7 +21839,11 @@
       </c>
       <c r="J603" t="inlineStr"/>
       <c r="K603" t="inlineStr"/>
-      <c r="L603" t="inlineStr"/>
+      <c r="L603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M603" t="n">
         <v>1</v>
       </c>
@@ -21890,7 +21878,11 @@
       </c>
       <c r="J604" t="inlineStr"/>
       <c r="K604" t="inlineStr"/>
-      <c r="L604" t="inlineStr"/>
+      <c r="L604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M604" t="n">
         <v>1</v>
       </c>
@@ -21925,7 +21917,11 @@
       </c>
       <c r="J605" t="inlineStr"/>
       <c r="K605" t="inlineStr"/>
-      <c r="L605" t="inlineStr"/>
+      <c r="L605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M605" t="n">
         <v>1</v>
       </c>
@@ -21960,7 +21956,11 @@
       </c>
       <c r="J606" t="inlineStr"/>
       <c r="K606" t="inlineStr"/>
-      <c r="L606" t="inlineStr"/>
+      <c r="L606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M606" t="n">
         <v>1</v>
       </c>
@@ -21995,7 +21995,11 @@
       </c>
       <c r="J607" t="inlineStr"/>
       <c r="K607" t="inlineStr"/>
-      <c r="L607" t="inlineStr"/>
+      <c r="L607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M607" t="n">
         <v>1</v>
       </c>
@@ -22030,7 +22034,11 @@
       </c>
       <c r="J608" t="inlineStr"/>
       <c r="K608" t="inlineStr"/>
-      <c r="L608" t="inlineStr"/>
+      <c r="L608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M608" t="n">
         <v>1</v>
       </c>
@@ -22065,7 +22073,11 @@
       </c>
       <c r="J609" t="inlineStr"/>
       <c r="K609" t="inlineStr"/>
-      <c r="L609" t="inlineStr"/>
+      <c r="L609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M609" t="n">
         <v>1</v>
       </c>
@@ -22100,7 +22112,11 @@
       </c>
       <c r="J610" t="inlineStr"/>
       <c r="K610" t="inlineStr"/>
-      <c r="L610" t="inlineStr"/>
+      <c r="L610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M610" t="n">
         <v>1</v>
       </c>
@@ -22135,7 +22151,11 @@
       </c>
       <c r="J611" t="inlineStr"/>
       <c r="K611" t="inlineStr"/>
-      <c r="L611" t="inlineStr"/>
+      <c r="L611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M611" t="n">
         <v>1</v>
       </c>
@@ -22170,7 +22190,11 @@
       </c>
       <c r="J612" t="inlineStr"/>
       <c r="K612" t="inlineStr"/>
-      <c r="L612" t="inlineStr"/>
+      <c r="L612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M612" t="n">
         <v>1</v>
       </c>
@@ -22205,7 +22229,11 @@
       </c>
       <c r="J613" t="inlineStr"/>
       <c r="K613" t="inlineStr"/>
-      <c r="L613" t="inlineStr"/>
+      <c r="L613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M613" t="n">
         <v>1</v>
       </c>
@@ -22240,7 +22268,11 @@
       </c>
       <c r="J614" t="inlineStr"/>
       <c r="K614" t="inlineStr"/>
-      <c r="L614" t="inlineStr"/>
+      <c r="L614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M614" t="n">
         <v>1</v>
       </c>
@@ -22275,7 +22307,11 @@
       </c>
       <c r="J615" t="inlineStr"/>
       <c r="K615" t="inlineStr"/>
-      <c r="L615" t="inlineStr"/>
+      <c r="L615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M615" t="n">
         <v>1</v>
       </c>
@@ -22310,7 +22346,11 @@
       </c>
       <c r="J616" t="inlineStr"/>
       <c r="K616" t="inlineStr"/>
-      <c r="L616" t="inlineStr"/>
+      <c r="L616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M616" t="n">
         <v>1</v>
       </c>
@@ -22345,7 +22385,11 @@
       </c>
       <c r="J617" t="inlineStr"/>
       <c r="K617" t="inlineStr"/>
-      <c r="L617" t="inlineStr"/>
+      <c r="L617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M617" t="n">
         <v>1</v>
       </c>
@@ -22380,7 +22424,11 @@
       </c>
       <c r="J618" t="inlineStr"/>
       <c r="K618" t="inlineStr"/>
-      <c r="L618" t="inlineStr"/>
+      <c r="L618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M618" t="n">
         <v>1</v>
       </c>
@@ -22415,7 +22463,11 @@
       </c>
       <c r="J619" t="inlineStr"/>
       <c r="K619" t="inlineStr"/>
-      <c r="L619" t="inlineStr"/>
+      <c r="L619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M619" t="n">
         <v>1</v>
       </c>
@@ -22450,7 +22502,11 @@
       </c>
       <c r="J620" t="inlineStr"/>
       <c r="K620" t="inlineStr"/>
-      <c r="L620" t="inlineStr"/>
+      <c r="L620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M620" t="n">
         <v>1</v>
       </c>
@@ -22485,7 +22541,11 @@
       </c>
       <c r="J621" t="inlineStr"/>
       <c r="K621" t="inlineStr"/>
-      <c r="L621" t="inlineStr"/>
+      <c r="L621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M621" t="n">
         <v>1</v>
       </c>
@@ -22520,7 +22580,11 @@
       </c>
       <c r="J622" t="inlineStr"/>
       <c r="K622" t="inlineStr"/>
-      <c r="L622" t="inlineStr"/>
+      <c r="L622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M622" t="n">
         <v>1</v>
       </c>
@@ -22555,7 +22619,11 @@
       </c>
       <c r="J623" t="inlineStr"/>
       <c r="K623" t="inlineStr"/>
-      <c r="L623" t="inlineStr"/>
+      <c r="L623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M623" t="n">
         <v>1</v>
       </c>
@@ -22590,7 +22658,11 @@
       </c>
       <c r="J624" t="inlineStr"/>
       <c r="K624" t="inlineStr"/>
-      <c r="L624" t="inlineStr"/>
+      <c r="L624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M624" t="n">
         <v>1</v>
       </c>
@@ -22625,7 +22697,11 @@
       </c>
       <c r="J625" t="inlineStr"/>
       <c r="K625" t="inlineStr"/>
-      <c r="L625" t="inlineStr"/>
+      <c r="L625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M625" t="n">
         <v>1</v>
       </c>
@@ -22660,7 +22736,11 @@
       </c>
       <c r="J626" t="inlineStr"/>
       <c r="K626" t="inlineStr"/>
-      <c r="L626" t="inlineStr"/>
+      <c r="L626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M626" t="n">
         <v>1</v>
       </c>
@@ -22695,7 +22775,11 @@
       </c>
       <c r="J627" t="inlineStr"/>
       <c r="K627" t="inlineStr"/>
-      <c r="L627" t="inlineStr"/>
+      <c r="L627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M627" t="n">
         <v>1</v>
       </c>
@@ -22730,7 +22814,11 @@
       </c>
       <c r="J628" t="inlineStr"/>
       <c r="K628" t="inlineStr"/>
-      <c r="L628" t="inlineStr"/>
+      <c r="L628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M628" t="n">
         <v>1</v>
       </c>
@@ -22765,7 +22853,11 @@
       </c>
       <c r="J629" t="inlineStr"/>
       <c r="K629" t="inlineStr"/>
-      <c r="L629" t="inlineStr"/>
+      <c r="L629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M629" t="n">
         <v>1</v>
       </c>
@@ -22800,7 +22892,11 @@
       </c>
       <c r="J630" t="inlineStr"/>
       <c r="K630" t="inlineStr"/>
-      <c r="L630" t="inlineStr"/>
+      <c r="L630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M630" t="n">
         <v>1</v>
       </c>
@@ -22835,7 +22931,11 @@
       </c>
       <c r="J631" t="inlineStr"/>
       <c r="K631" t="inlineStr"/>
-      <c r="L631" t="inlineStr"/>
+      <c r="L631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M631" t="n">
         <v>1</v>
       </c>
@@ -22870,7 +22970,11 @@
       </c>
       <c r="J632" t="inlineStr"/>
       <c r="K632" t="inlineStr"/>
-      <c r="L632" t="inlineStr"/>
+      <c r="L632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M632" t="n">
         <v>1</v>
       </c>
@@ -22905,7 +23009,11 @@
       </c>
       <c r="J633" t="inlineStr"/>
       <c r="K633" t="inlineStr"/>
-      <c r="L633" t="inlineStr"/>
+      <c r="L633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M633" t="n">
         <v>1</v>
       </c>
@@ -22940,7 +23048,11 @@
       </c>
       <c r="J634" t="inlineStr"/>
       <c r="K634" t="inlineStr"/>
-      <c r="L634" t="inlineStr"/>
+      <c r="L634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M634" t="n">
         <v>1</v>
       </c>
@@ -22975,7 +23087,11 @@
       </c>
       <c r="J635" t="inlineStr"/>
       <c r="K635" t="inlineStr"/>
-      <c r="L635" t="inlineStr"/>
+      <c r="L635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M635" t="n">
         <v>1</v>
       </c>
@@ -23010,7 +23126,11 @@
       </c>
       <c r="J636" t="inlineStr"/>
       <c r="K636" t="inlineStr"/>
-      <c r="L636" t="inlineStr"/>
+      <c r="L636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M636" t="n">
         <v>1</v>
       </c>
@@ -23045,7 +23165,11 @@
       </c>
       <c r="J637" t="inlineStr"/>
       <c r="K637" t="inlineStr"/>
-      <c r="L637" t="inlineStr"/>
+      <c r="L637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M637" t="n">
         <v>1</v>
       </c>
@@ -23080,7 +23204,11 @@
       </c>
       <c r="J638" t="inlineStr"/>
       <c r="K638" t="inlineStr"/>
-      <c r="L638" t="inlineStr"/>
+      <c r="L638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M638" t="n">
         <v>1</v>
       </c>
@@ -23115,7 +23243,11 @@
       </c>
       <c r="J639" t="inlineStr"/>
       <c r="K639" t="inlineStr"/>
-      <c r="L639" t="inlineStr"/>
+      <c r="L639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M639" t="n">
         <v>1</v>
       </c>
@@ -23150,7 +23282,11 @@
       </c>
       <c r="J640" t="inlineStr"/>
       <c r="K640" t="inlineStr"/>
-      <c r="L640" t="inlineStr"/>
+      <c r="L640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M640" t="n">
         <v>1</v>
       </c>
@@ -23185,7 +23321,11 @@
       </c>
       <c r="J641" t="inlineStr"/>
       <c r="K641" t="inlineStr"/>
-      <c r="L641" t="inlineStr"/>
+      <c r="L641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M641" t="n">
         <v>1</v>
       </c>
@@ -23220,7 +23360,11 @@
       </c>
       <c r="J642" t="inlineStr"/>
       <c r="K642" t="inlineStr"/>
-      <c r="L642" t="inlineStr"/>
+      <c r="L642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M642" t="n">
         <v>1</v>
       </c>
@@ -23255,7 +23399,11 @@
       </c>
       <c r="J643" t="inlineStr"/>
       <c r="K643" t="inlineStr"/>
-      <c r="L643" t="inlineStr"/>
+      <c r="L643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M643" t="n">
         <v>1</v>
       </c>
@@ -23290,7 +23438,11 @@
       </c>
       <c r="J644" t="inlineStr"/>
       <c r="K644" t="inlineStr"/>
-      <c r="L644" t="inlineStr"/>
+      <c r="L644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M644" t="n">
         <v>1</v>
       </c>
@@ -23325,7 +23477,11 @@
       </c>
       <c r="J645" t="inlineStr"/>
       <c r="K645" t="inlineStr"/>
-      <c r="L645" t="inlineStr"/>
+      <c r="L645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M645" t="n">
         <v>1</v>
       </c>
@@ -23360,7 +23516,11 @@
       </c>
       <c r="J646" t="inlineStr"/>
       <c r="K646" t="inlineStr"/>
-      <c r="L646" t="inlineStr"/>
+      <c r="L646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M646" t="n">
         <v>1</v>
       </c>
@@ -23395,7 +23555,11 @@
       </c>
       <c r="J647" t="inlineStr"/>
       <c r="K647" t="inlineStr"/>
-      <c r="L647" t="inlineStr"/>
+      <c r="L647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M647" t="n">
         <v>1</v>
       </c>
@@ -23430,7 +23594,11 @@
       </c>
       <c r="J648" t="inlineStr"/>
       <c r="K648" t="inlineStr"/>
-      <c r="L648" t="inlineStr"/>
+      <c r="L648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M648" t="n">
         <v>1</v>
       </c>
@@ -23465,7 +23633,11 @@
       </c>
       <c r="J649" t="inlineStr"/>
       <c r="K649" t="inlineStr"/>
-      <c r="L649" t="inlineStr"/>
+      <c r="L649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M649" t="n">
         <v>1</v>
       </c>
@@ -23500,7 +23672,11 @@
       </c>
       <c r="J650" t="inlineStr"/>
       <c r="K650" t="inlineStr"/>
-      <c r="L650" t="inlineStr"/>
+      <c r="L650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M650" t="n">
         <v>1</v>
       </c>
@@ -23535,7 +23711,11 @@
       </c>
       <c r="J651" t="inlineStr"/>
       <c r="K651" t="inlineStr"/>
-      <c r="L651" t="inlineStr"/>
+      <c r="L651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M651" t="n">
         <v>1</v>
       </c>
@@ -23570,7 +23750,11 @@
       </c>
       <c r="J652" t="inlineStr"/>
       <c r="K652" t="inlineStr"/>
-      <c r="L652" t="inlineStr"/>
+      <c r="L652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M652" t="n">
         <v>1</v>
       </c>
@@ -23605,7 +23789,11 @@
       </c>
       <c r="J653" t="inlineStr"/>
       <c r="K653" t="inlineStr"/>
-      <c r="L653" t="inlineStr"/>
+      <c r="L653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M653" t="n">
         <v>1</v>
       </c>
@@ -23640,7 +23828,11 @@
       </c>
       <c r="J654" t="inlineStr"/>
       <c r="K654" t="inlineStr"/>
-      <c r="L654" t="inlineStr"/>
+      <c r="L654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M654" t="n">
         <v>1</v>
       </c>
@@ -23675,7 +23867,11 @@
       </c>
       <c r="J655" t="inlineStr"/>
       <c r="K655" t="inlineStr"/>
-      <c r="L655" t="inlineStr"/>
+      <c r="L655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M655" t="n">
         <v>1</v>
       </c>
@@ -23710,7 +23906,11 @@
       </c>
       <c r="J656" t="inlineStr"/>
       <c r="K656" t="inlineStr"/>
-      <c r="L656" t="inlineStr"/>
+      <c r="L656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M656" t="n">
         <v>1</v>
       </c>
@@ -23745,7 +23945,11 @@
       </c>
       <c r="J657" t="inlineStr"/>
       <c r="K657" t="inlineStr"/>
-      <c r="L657" t="inlineStr"/>
+      <c r="L657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M657" t="n">
         <v>1</v>
       </c>
@@ -23780,7 +23984,11 @@
       </c>
       <c r="J658" t="inlineStr"/>
       <c r="K658" t="inlineStr"/>
-      <c r="L658" t="inlineStr"/>
+      <c r="L658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M658" t="n">
         <v>1</v>
       </c>
@@ -23815,7 +24023,11 @@
       </c>
       <c r="J659" t="inlineStr"/>
       <c r="K659" t="inlineStr"/>
-      <c r="L659" t="inlineStr"/>
+      <c r="L659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M659" t="n">
         <v>1</v>
       </c>
@@ -23850,7 +24062,11 @@
       </c>
       <c r="J660" t="inlineStr"/>
       <c r="K660" t="inlineStr"/>
-      <c r="L660" t="inlineStr"/>
+      <c r="L660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M660" t="n">
         <v>1</v>
       </c>
@@ -23885,7 +24101,11 @@
       </c>
       <c r="J661" t="inlineStr"/>
       <c r="K661" t="inlineStr"/>
-      <c r="L661" t="inlineStr"/>
+      <c r="L661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M661" t="n">
         <v>1</v>
       </c>
@@ -23920,7 +24140,11 @@
       </c>
       <c r="J662" t="inlineStr"/>
       <c r="K662" t="inlineStr"/>
-      <c r="L662" t="inlineStr"/>
+      <c r="L662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M662" t="n">
         <v>1</v>
       </c>
@@ -23955,7 +24179,11 @@
       </c>
       <c r="J663" t="inlineStr"/>
       <c r="K663" t="inlineStr"/>
-      <c r="L663" t="inlineStr"/>
+      <c r="L663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M663" t="n">
         <v>1</v>
       </c>
@@ -23990,7 +24218,11 @@
       </c>
       <c r="J664" t="inlineStr"/>
       <c r="K664" t="inlineStr"/>
-      <c r="L664" t="inlineStr"/>
+      <c r="L664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M664" t="n">
         <v>1</v>
       </c>
@@ -24025,7 +24257,11 @@
       </c>
       <c r="J665" t="inlineStr"/>
       <c r="K665" t="inlineStr"/>
-      <c r="L665" t="inlineStr"/>
+      <c r="L665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M665" t="n">
         <v>1</v>
       </c>
@@ -24060,7 +24296,11 @@
       </c>
       <c r="J666" t="inlineStr"/>
       <c r="K666" t="inlineStr"/>
-      <c r="L666" t="inlineStr"/>
+      <c r="L666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M666" t="n">
         <v>1</v>
       </c>
@@ -24095,7 +24335,11 @@
       </c>
       <c r="J667" t="inlineStr"/>
       <c r="K667" t="inlineStr"/>
-      <c r="L667" t="inlineStr"/>
+      <c r="L667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M667" t="n">
         <v>1</v>
       </c>
@@ -24130,7 +24374,11 @@
       </c>
       <c r="J668" t="inlineStr"/>
       <c r="K668" t="inlineStr"/>
-      <c r="L668" t="inlineStr"/>
+      <c r="L668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M668" t="n">
         <v>1</v>
       </c>
@@ -24165,7 +24413,11 @@
       </c>
       <c r="J669" t="inlineStr"/>
       <c r="K669" t="inlineStr"/>
-      <c r="L669" t="inlineStr"/>
+      <c r="L669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M669" t="n">
         <v>1</v>
       </c>
@@ -24200,7 +24452,11 @@
       </c>
       <c r="J670" t="inlineStr"/>
       <c r="K670" t="inlineStr"/>
-      <c r="L670" t="inlineStr"/>
+      <c r="L670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M670" t="n">
         <v>1</v>
       </c>
@@ -24235,7 +24491,11 @@
       </c>
       <c r="J671" t="inlineStr"/>
       <c r="K671" t="inlineStr"/>
-      <c r="L671" t="inlineStr"/>
+      <c r="L671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M671" t="n">
         <v>1</v>
       </c>
@@ -24270,7 +24530,11 @@
       </c>
       <c r="J672" t="inlineStr"/>
       <c r="K672" t="inlineStr"/>
-      <c r="L672" t="inlineStr"/>
+      <c r="L672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M672" t="n">
         <v>1</v>
       </c>
@@ -24305,7 +24569,11 @@
       </c>
       <c r="J673" t="inlineStr"/>
       <c r="K673" t="inlineStr"/>
-      <c r="L673" t="inlineStr"/>
+      <c r="L673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M673" t="n">
         <v>1</v>
       </c>
@@ -24340,7 +24608,11 @@
       </c>
       <c r="J674" t="inlineStr"/>
       <c r="K674" t="inlineStr"/>
-      <c r="L674" t="inlineStr"/>
+      <c r="L674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M674" t="n">
         <v>1</v>
       </c>
@@ -24375,7 +24647,11 @@
       </c>
       <c r="J675" t="inlineStr"/>
       <c r="K675" t="inlineStr"/>
-      <c r="L675" t="inlineStr"/>
+      <c r="L675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M675" t="n">
         <v>1</v>
       </c>
@@ -24410,7 +24686,11 @@
       </c>
       <c r="J676" t="inlineStr"/>
       <c r="K676" t="inlineStr"/>
-      <c r="L676" t="inlineStr"/>
+      <c r="L676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M676" t="n">
         <v>1</v>
       </c>
@@ -24445,7 +24725,11 @@
       </c>
       <c r="J677" t="inlineStr"/>
       <c r="K677" t="inlineStr"/>
-      <c r="L677" t="inlineStr"/>
+      <c r="L677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M677" t="n">
         <v>1</v>
       </c>
@@ -24480,7 +24764,11 @@
       </c>
       <c r="J678" t="inlineStr"/>
       <c r="K678" t="inlineStr"/>
-      <c r="L678" t="inlineStr"/>
+      <c r="L678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M678" t="n">
         <v>1</v>
       </c>
@@ -24515,7 +24803,11 @@
       </c>
       <c r="J679" t="inlineStr"/>
       <c r="K679" t="inlineStr"/>
-      <c r="L679" t="inlineStr"/>
+      <c r="L679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M679" t="n">
         <v>1</v>
       </c>
@@ -24550,7 +24842,11 @@
       </c>
       <c r="J680" t="inlineStr"/>
       <c r="K680" t="inlineStr"/>
-      <c r="L680" t="inlineStr"/>
+      <c r="L680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M680" t="n">
         <v>1</v>
       </c>
@@ -24585,7 +24881,11 @@
       </c>
       <c r="J681" t="inlineStr"/>
       <c r="K681" t="inlineStr"/>
-      <c r="L681" t="inlineStr"/>
+      <c r="L681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M681" t="n">
         <v>1</v>
       </c>
@@ -24620,7 +24920,11 @@
       </c>
       <c r="J682" t="inlineStr"/>
       <c r="K682" t="inlineStr"/>
-      <c r="L682" t="inlineStr"/>
+      <c r="L682" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M682" t="n">
         <v>1</v>
       </c>
@@ -24655,7 +24959,11 @@
       </c>
       <c r="J683" t="inlineStr"/>
       <c r="K683" t="inlineStr"/>
-      <c r="L683" t="inlineStr"/>
+      <c r="L683" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M683" t="n">
         <v>1</v>
       </c>
@@ -24690,7 +24998,11 @@
       </c>
       <c r="J684" t="inlineStr"/>
       <c r="K684" t="inlineStr"/>
-      <c r="L684" t="inlineStr"/>
+      <c r="L684" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M684" t="n">
         <v>1</v>
       </c>
@@ -24725,7 +25037,11 @@
       </c>
       <c r="J685" t="inlineStr"/>
       <c r="K685" t="inlineStr"/>
-      <c r="L685" t="inlineStr"/>
+      <c r="L685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M685" t="n">
         <v>1</v>
       </c>
@@ -24760,7 +25076,11 @@
       </c>
       <c r="J686" t="inlineStr"/>
       <c r="K686" t="inlineStr"/>
-      <c r="L686" t="inlineStr"/>
+      <c r="L686" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M686" t="n">
         <v>1</v>
       </c>
@@ -24795,7 +25115,11 @@
       </c>
       <c r="J687" t="inlineStr"/>
       <c r="K687" t="inlineStr"/>
-      <c r="L687" t="inlineStr"/>
+      <c r="L687" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M687" t="n">
         <v>1</v>
       </c>
@@ -24830,7 +25154,11 @@
       </c>
       <c r="J688" t="inlineStr"/>
       <c r="K688" t="inlineStr"/>
-      <c r="L688" t="inlineStr"/>
+      <c r="L688" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M688" t="n">
         <v>1</v>
       </c>
@@ -24865,7 +25193,11 @@
       </c>
       <c r="J689" t="inlineStr"/>
       <c r="K689" t="inlineStr"/>
-      <c r="L689" t="inlineStr"/>
+      <c r="L689" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M689" t="n">
         <v>1</v>
       </c>
@@ -24900,7 +25232,11 @@
       </c>
       <c r="J690" t="inlineStr"/>
       <c r="K690" t="inlineStr"/>
-      <c r="L690" t="inlineStr"/>
+      <c r="L690" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M690" t="n">
         <v>1</v>
       </c>
@@ -24935,7 +25271,11 @@
       </c>
       <c r="J691" t="inlineStr"/>
       <c r="K691" t="inlineStr"/>
-      <c r="L691" t="inlineStr"/>
+      <c r="L691" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M691" t="n">
         <v>1</v>
       </c>
@@ -24970,7 +25310,11 @@
       </c>
       <c r="J692" t="inlineStr"/>
       <c r="K692" t="inlineStr"/>
-      <c r="L692" t="inlineStr"/>
+      <c r="L692" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M692" t="n">
         <v>1</v>
       </c>
@@ -25005,7 +25349,11 @@
       </c>
       <c r="J693" t="inlineStr"/>
       <c r="K693" t="inlineStr"/>
-      <c r="L693" t="inlineStr"/>
+      <c r="L693" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M693" t="n">
         <v>1</v>
       </c>
@@ -25040,7 +25388,11 @@
       </c>
       <c r="J694" t="inlineStr"/>
       <c r="K694" t="inlineStr"/>
-      <c r="L694" t="inlineStr"/>
+      <c r="L694" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M694" t="n">
         <v>1</v>
       </c>
@@ -25075,7 +25427,11 @@
       </c>
       <c r="J695" t="inlineStr"/>
       <c r="K695" t="inlineStr"/>
-      <c r="L695" t="inlineStr"/>
+      <c r="L695" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M695" t="n">
         <v>1</v>
       </c>
@@ -25110,7 +25466,11 @@
       </c>
       <c r="J696" t="inlineStr"/>
       <c r="K696" t="inlineStr"/>
-      <c r="L696" t="inlineStr"/>
+      <c r="L696" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M696" t="n">
         <v>1</v>
       </c>
@@ -25145,7 +25505,11 @@
       </c>
       <c r="J697" t="inlineStr"/>
       <c r="K697" t="inlineStr"/>
-      <c r="L697" t="inlineStr"/>
+      <c r="L697" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M697" t="n">
         <v>1</v>
       </c>
@@ -25180,7 +25544,11 @@
       </c>
       <c r="J698" t="inlineStr"/>
       <c r="K698" t="inlineStr"/>
-      <c r="L698" t="inlineStr"/>
+      <c r="L698" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M698" t="n">
         <v>1</v>
       </c>
@@ -25215,7 +25583,11 @@
       </c>
       <c r="J699" t="inlineStr"/>
       <c r="K699" t="inlineStr"/>
-      <c r="L699" t="inlineStr"/>
+      <c r="L699" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M699" t="n">
         <v>1</v>
       </c>
@@ -25250,7 +25622,11 @@
       </c>
       <c r="J700" t="inlineStr"/>
       <c r="K700" t="inlineStr"/>
-      <c r="L700" t="inlineStr"/>
+      <c r="L700" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M700" t="n">
         <v>1</v>
       </c>
@@ -25285,7 +25661,11 @@
       </c>
       <c r="J701" t="inlineStr"/>
       <c r="K701" t="inlineStr"/>
-      <c r="L701" t="inlineStr"/>
+      <c r="L701" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M701" t="n">
         <v>1</v>
       </c>
@@ -25320,7 +25700,11 @@
       </c>
       <c r="J702" t="inlineStr"/>
       <c r="K702" t="inlineStr"/>
-      <c r="L702" t="inlineStr"/>
+      <c r="L702" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M702" t="n">
         <v>1</v>
       </c>
@@ -25355,7 +25739,11 @@
       </c>
       <c r="J703" t="inlineStr"/>
       <c r="K703" t="inlineStr"/>
-      <c r="L703" t="inlineStr"/>
+      <c r="L703" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M703" t="n">
         <v>1</v>
       </c>
@@ -25390,7 +25778,11 @@
       </c>
       <c r="J704" t="inlineStr"/>
       <c r="K704" t="inlineStr"/>
-      <c r="L704" t="inlineStr"/>
+      <c r="L704" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M704" t="n">
         <v>1</v>
       </c>
@@ -25425,7 +25817,11 @@
       </c>
       <c r="J705" t="inlineStr"/>
       <c r="K705" t="inlineStr"/>
-      <c r="L705" t="inlineStr"/>
+      <c r="L705" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M705" t="n">
         <v>1</v>
       </c>
@@ -25460,7 +25856,11 @@
       </c>
       <c r="J706" t="inlineStr"/>
       <c r="K706" t="inlineStr"/>
-      <c r="L706" t="inlineStr"/>
+      <c r="L706" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M706" t="n">
         <v>1</v>
       </c>
@@ -25495,7 +25895,11 @@
       </c>
       <c r="J707" t="inlineStr"/>
       <c r="K707" t="inlineStr"/>
-      <c r="L707" t="inlineStr"/>
+      <c r="L707" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M707" t="n">
         <v>1</v>
       </c>
@@ -25530,7 +25934,11 @@
       </c>
       <c r="J708" t="inlineStr"/>
       <c r="K708" t="inlineStr"/>
-      <c r="L708" t="inlineStr"/>
+      <c r="L708" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M708" t="n">
         <v>1</v>
       </c>
@@ -25565,7 +25973,11 @@
       </c>
       <c r="J709" t="inlineStr"/>
       <c r="K709" t="inlineStr"/>
-      <c r="L709" t="inlineStr"/>
+      <c r="L709" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M709" t="n">
         <v>1</v>
       </c>
@@ -25600,7 +26012,11 @@
       </c>
       <c r="J710" t="inlineStr"/>
       <c r="K710" t="inlineStr"/>
-      <c r="L710" t="inlineStr"/>
+      <c r="L710" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M710" t="n">
         <v>1</v>
       </c>
@@ -25635,7 +26051,11 @@
       </c>
       <c r="J711" t="inlineStr"/>
       <c r="K711" t="inlineStr"/>
-      <c r="L711" t="inlineStr"/>
+      <c r="L711" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M711" t="n">
         <v>1</v>
       </c>
@@ -25670,7 +26090,11 @@
       </c>
       <c r="J712" t="inlineStr"/>
       <c r="K712" t="inlineStr"/>
-      <c r="L712" t="inlineStr"/>
+      <c r="L712" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M712" t="n">
         <v>1</v>
       </c>
@@ -25705,7 +26129,11 @@
       </c>
       <c r="J713" t="inlineStr"/>
       <c r="K713" t="inlineStr"/>
-      <c r="L713" t="inlineStr"/>
+      <c r="L713" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M713" t="n">
         <v>1</v>
       </c>
@@ -25740,7 +26168,11 @@
       </c>
       <c r="J714" t="inlineStr"/>
       <c r="K714" t="inlineStr"/>
-      <c r="L714" t="inlineStr"/>
+      <c r="L714" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M714" t="n">
         <v>1</v>
       </c>
@@ -25775,7 +26207,11 @@
       </c>
       <c r="J715" t="inlineStr"/>
       <c r="K715" t="inlineStr"/>
-      <c r="L715" t="inlineStr"/>
+      <c r="L715" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M715" t="n">
         <v>1</v>
       </c>
@@ -25810,7 +26246,11 @@
       </c>
       <c r="J716" t="inlineStr"/>
       <c r="K716" t="inlineStr"/>
-      <c r="L716" t="inlineStr"/>
+      <c r="L716" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M716" t="n">
         <v>1</v>
       </c>
@@ -25845,7 +26285,11 @@
       </c>
       <c r="J717" t="inlineStr"/>
       <c r="K717" t="inlineStr"/>
-      <c r="L717" t="inlineStr"/>
+      <c r="L717" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M717" t="n">
         <v>1</v>
       </c>
@@ -25880,7 +26324,11 @@
       </c>
       <c r="J718" t="inlineStr"/>
       <c r="K718" t="inlineStr"/>
-      <c r="L718" t="inlineStr"/>
+      <c r="L718" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M718" t="n">
         <v>1</v>
       </c>
@@ -25915,7 +26363,11 @@
       </c>
       <c r="J719" t="inlineStr"/>
       <c r="K719" t="inlineStr"/>
-      <c r="L719" t="inlineStr"/>
+      <c r="L719" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M719" t="n">
         <v>1</v>
       </c>
@@ -25950,7 +26402,11 @@
       </c>
       <c r="J720" t="inlineStr"/>
       <c r="K720" t="inlineStr"/>
-      <c r="L720" t="inlineStr"/>
+      <c r="L720" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M720" t="n">
         <v>1</v>
       </c>
@@ -25985,7 +26441,11 @@
       </c>
       <c r="J721" t="inlineStr"/>
       <c r="K721" t="inlineStr"/>
-      <c r="L721" t="inlineStr"/>
+      <c r="L721" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M721" t="n">
         <v>1</v>
       </c>
@@ -26020,7 +26480,11 @@
       </c>
       <c r="J722" t="inlineStr"/>
       <c r="K722" t="inlineStr"/>
-      <c r="L722" t="inlineStr"/>
+      <c r="L722" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M722" t="n">
         <v>1</v>
       </c>
@@ -26055,7 +26519,11 @@
       </c>
       <c r="J723" t="inlineStr"/>
       <c r="K723" t="inlineStr"/>
-      <c r="L723" t="inlineStr"/>
+      <c r="L723" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M723" t="n">
         <v>1</v>
       </c>
@@ -26090,7 +26558,11 @@
       </c>
       <c r="J724" t="inlineStr"/>
       <c r="K724" t="inlineStr"/>
-      <c r="L724" t="inlineStr"/>
+      <c r="L724" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M724" t="n">
         <v>1</v>
       </c>
@@ -26125,7 +26597,11 @@
       </c>
       <c r="J725" t="inlineStr"/>
       <c r="K725" t="inlineStr"/>
-      <c r="L725" t="inlineStr"/>
+      <c r="L725" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M725" t="n">
         <v>1</v>
       </c>
@@ -26160,7 +26636,11 @@
       </c>
       <c r="J726" t="inlineStr"/>
       <c r="K726" t="inlineStr"/>
-      <c r="L726" t="inlineStr"/>
+      <c r="L726" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M726" t="n">
         <v>1</v>
       </c>
@@ -26195,7 +26675,11 @@
       </c>
       <c r="J727" t="inlineStr"/>
       <c r="K727" t="inlineStr"/>
-      <c r="L727" t="inlineStr"/>
+      <c r="L727" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M727" t="n">
         <v>1</v>
       </c>
@@ -26230,7 +26714,11 @@
       </c>
       <c r="J728" t="inlineStr"/>
       <c r="K728" t="inlineStr"/>
-      <c r="L728" t="inlineStr"/>
+      <c r="L728" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M728" t="n">
         <v>1</v>
       </c>
@@ -26265,7 +26753,11 @@
       </c>
       <c r="J729" t="inlineStr"/>
       <c r="K729" t="inlineStr"/>
-      <c r="L729" t="inlineStr"/>
+      <c r="L729" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M729" t="n">
         <v>1</v>
       </c>
@@ -26300,7 +26792,11 @@
       </c>
       <c r="J730" t="inlineStr"/>
       <c r="K730" t="inlineStr"/>
-      <c r="L730" t="inlineStr"/>
+      <c r="L730" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M730" t="n">
         <v>1</v>
       </c>
@@ -26335,7 +26831,11 @@
       </c>
       <c r="J731" t="inlineStr"/>
       <c r="K731" t="inlineStr"/>
-      <c r="L731" t="inlineStr"/>
+      <c r="L731" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M731" t="n">
         <v>1</v>
       </c>
@@ -26370,7 +26870,11 @@
       </c>
       <c r="J732" t="inlineStr"/>
       <c r="K732" t="inlineStr"/>
-      <c r="L732" t="inlineStr"/>
+      <c r="L732" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M732" t="n">
         <v>1</v>
       </c>
@@ -26405,7 +26909,11 @@
       </c>
       <c r="J733" t="inlineStr"/>
       <c r="K733" t="inlineStr"/>
-      <c r="L733" t="inlineStr"/>
+      <c r="L733" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M733" t="n">
         <v>1</v>
       </c>
@@ -26440,7 +26948,11 @@
       </c>
       <c r="J734" t="inlineStr"/>
       <c r="K734" t="inlineStr"/>
-      <c r="L734" t="inlineStr"/>
+      <c r="L734" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M734" t="n">
         <v>1</v>
       </c>
@@ -26475,7 +26987,11 @@
       </c>
       <c r="J735" t="inlineStr"/>
       <c r="K735" t="inlineStr"/>
-      <c r="L735" t="inlineStr"/>
+      <c r="L735" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M735" t="n">
         <v>1</v>
       </c>
@@ -26510,7 +27026,11 @@
       </c>
       <c r="J736" t="inlineStr"/>
       <c r="K736" t="inlineStr"/>
-      <c r="L736" t="inlineStr"/>
+      <c r="L736" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M736" t="n">
         <v>1</v>
       </c>
@@ -26545,7 +27065,11 @@
       </c>
       <c r="J737" t="inlineStr"/>
       <c r="K737" t="inlineStr"/>
-      <c r="L737" t="inlineStr"/>
+      <c r="L737" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M737" t="n">
         <v>1</v>
       </c>
@@ -26580,7 +27104,11 @@
       </c>
       <c r="J738" t="inlineStr"/>
       <c r="K738" t="inlineStr"/>
-      <c r="L738" t="inlineStr"/>
+      <c r="L738" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M738" t="n">
         <v>1</v>
       </c>
@@ -26615,7 +27143,11 @@
       </c>
       <c r="J739" t="inlineStr"/>
       <c r="K739" t="inlineStr"/>
-      <c r="L739" t="inlineStr"/>
+      <c r="L739" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M739" t="n">
         <v>1</v>
       </c>
@@ -26650,7 +27182,11 @@
       </c>
       <c r="J740" t="inlineStr"/>
       <c r="K740" t="inlineStr"/>
-      <c r="L740" t="inlineStr"/>
+      <c r="L740" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M740" t="n">
         <v>1</v>
       </c>
@@ -26685,7 +27221,11 @@
       </c>
       <c r="J741" t="inlineStr"/>
       <c r="K741" t="inlineStr"/>
-      <c r="L741" t="inlineStr"/>
+      <c r="L741" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M741" t="n">
         <v>1</v>
       </c>
@@ -26720,7 +27260,11 @@
       </c>
       <c r="J742" t="inlineStr"/>
       <c r="K742" t="inlineStr"/>
-      <c r="L742" t="inlineStr"/>
+      <c r="L742" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M742" t="n">
         <v>1</v>
       </c>
@@ -26755,7 +27299,11 @@
       </c>
       <c r="J743" t="inlineStr"/>
       <c r="K743" t="inlineStr"/>
-      <c r="L743" t="inlineStr"/>
+      <c r="L743" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M743" t="n">
         <v>1</v>
       </c>
@@ -26790,7 +27338,11 @@
       </c>
       <c r="J744" t="inlineStr"/>
       <c r="K744" t="inlineStr"/>
-      <c r="L744" t="inlineStr"/>
+      <c r="L744" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M744" t="n">
         <v>1</v>
       </c>
@@ -26825,7 +27377,11 @@
       </c>
       <c r="J745" t="inlineStr"/>
       <c r="K745" t="inlineStr"/>
-      <c r="L745" t="inlineStr"/>
+      <c r="L745" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M745" t="n">
         <v>1</v>
       </c>
@@ -26860,7 +27416,11 @@
       </c>
       <c r="J746" t="inlineStr"/>
       <c r="K746" t="inlineStr"/>
-      <c r="L746" t="inlineStr"/>
+      <c r="L746" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M746" t="n">
         <v>1</v>
       </c>
@@ -26895,7 +27455,11 @@
       </c>
       <c r="J747" t="inlineStr"/>
       <c r="K747" t="inlineStr"/>
-      <c r="L747" t="inlineStr"/>
+      <c r="L747" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M747" t="n">
         <v>1</v>
       </c>
@@ -26930,7 +27494,11 @@
       </c>
       <c r="J748" t="inlineStr"/>
       <c r="K748" t="inlineStr"/>
-      <c r="L748" t="inlineStr"/>
+      <c r="L748" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M748" t="n">
         <v>1</v>
       </c>
@@ -26965,7 +27533,11 @@
       </c>
       <c r="J749" t="inlineStr"/>
       <c r="K749" t="inlineStr"/>
-      <c r="L749" t="inlineStr"/>
+      <c r="L749" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M749" t="n">
         <v>1</v>
       </c>
@@ -27000,7 +27572,11 @@
       </c>
       <c r="J750" t="inlineStr"/>
       <c r="K750" t="inlineStr"/>
-      <c r="L750" t="inlineStr"/>
+      <c r="L750" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M750" t="n">
         <v>1</v>
       </c>
@@ -27035,7 +27611,11 @@
       </c>
       <c r="J751" t="inlineStr"/>
       <c r="K751" t="inlineStr"/>
-      <c r="L751" t="inlineStr"/>
+      <c r="L751" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M751" t="n">
         <v>1</v>
       </c>
@@ -27070,7 +27650,11 @@
       </c>
       <c r="J752" t="inlineStr"/>
       <c r="K752" t="inlineStr"/>
-      <c r="L752" t="inlineStr"/>
+      <c r="L752" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M752" t="n">
         <v>1</v>
       </c>
@@ -27105,7 +27689,11 @@
       </c>
       <c r="J753" t="inlineStr"/>
       <c r="K753" t="inlineStr"/>
-      <c r="L753" t="inlineStr"/>
+      <c r="L753" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M753" t="n">
         <v>1</v>
       </c>
@@ -27140,7 +27728,11 @@
       </c>
       <c r="J754" t="inlineStr"/>
       <c r="K754" t="inlineStr"/>
-      <c r="L754" t="inlineStr"/>
+      <c r="L754" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M754" t="n">
         <v>1</v>
       </c>
@@ -27175,7 +27767,11 @@
       </c>
       <c r="J755" t="inlineStr"/>
       <c r="K755" t="inlineStr"/>
-      <c r="L755" t="inlineStr"/>
+      <c r="L755" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M755" t="n">
         <v>1</v>
       </c>
@@ -27210,7 +27806,11 @@
       </c>
       <c r="J756" t="inlineStr"/>
       <c r="K756" t="inlineStr"/>
-      <c r="L756" t="inlineStr"/>
+      <c r="L756" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M756" t="n">
         <v>1</v>
       </c>
@@ -27245,7 +27845,11 @@
       </c>
       <c r="J757" t="inlineStr"/>
       <c r="K757" t="inlineStr"/>
-      <c r="L757" t="inlineStr"/>
+      <c r="L757" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M757" t="n">
         <v>1</v>
       </c>
@@ -27280,7 +27884,11 @@
       </c>
       <c r="J758" t="inlineStr"/>
       <c r="K758" t="inlineStr"/>
-      <c r="L758" t="inlineStr"/>
+      <c r="L758" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M758" t="n">
         <v>1</v>
       </c>
@@ -27315,7 +27923,11 @@
       </c>
       <c r="J759" t="inlineStr"/>
       <c r="K759" t="inlineStr"/>
-      <c r="L759" t="inlineStr"/>
+      <c r="L759" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M759" t="n">
         <v>1</v>
       </c>
@@ -27350,7 +27962,11 @@
       </c>
       <c r="J760" t="inlineStr"/>
       <c r="K760" t="inlineStr"/>
-      <c r="L760" t="inlineStr"/>
+      <c r="L760" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M760" t="n">
         <v>1</v>
       </c>
@@ -27385,7 +28001,11 @@
       </c>
       <c r="J761" t="inlineStr"/>
       <c r="K761" t="inlineStr"/>
-      <c r="L761" t="inlineStr"/>
+      <c r="L761" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M761" t="n">
         <v>1</v>
       </c>
@@ -27420,7 +28040,11 @@
       </c>
       <c r="J762" t="inlineStr"/>
       <c r="K762" t="inlineStr"/>
-      <c r="L762" t="inlineStr"/>
+      <c r="L762" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M762" t="n">
         <v>1</v>
       </c>
@@ -27455,7 +28079,11 @@
       </c>
       <c r="J763" t="inlineStr"/>
       <c r="K763" t="inlineStr"/>
-      <c r="L763" t="inlineStr"/>
+      <c r="L763" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M763" t="n">
         <v>1</v>
       </c>
@@ -27490,7 +28118,11 @@
       </c>
       <c r="J764" t="inlineStr"/>
       <c r="K764" t="inlineStr"/>
-      <c r="L764" t="inlineStr"/>
+      <c r="L764" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M764" t="n">
         <v>1</v>
       </c>
@@ -27525,7 +28157,11 @@
       </c>
       <c r="J765" t="inlineStr"/>
       <c r="K765" t="inlineStr"/>
-      <c r="L765" t="inlineStr"/>
+      <c r="L765" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M765" t="n">
         <v>1</v>
       </c>
@@ -27560,7 +28196,11 @@
       </c>
       <c r="J766" t="inlineStr"/>
       <c r="K766" t="inlineStr"/>
-      <c r="L766" t="inlineStr"/>
+      <c r="L766" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M766" t="n">
         <v>1</v>
       </c>
@@ -27595,7 +28235,11 @@
       </c>
       <c r="J767" t="inlineStr"/>
       <c r="K767" t="inlineStr"/>
-      <c r="L767" t="inlineStr"/>
+      <c r="L767" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M767" t="n">
         <v>1</v>
       </c>
@@ -27630,7 +28274,11 @@
       </c>
       <c r="J768" t="inlineStr"/>
       <c r="K768" t="inlineStr"/>
-      <c r="L768" t="inlineStr"/>
+      <c r="L768" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M768" t="n">
         <v>1</v>
       </c>
@@ -27658,14 +28306,20 @@
         <v>46.44000000000015</v>
       </c>
       <c r="H769" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I769" t="n">
         <v>0</v>
       </c>
-      <c r="J769" t="inlineStr"/>
+      <c r="J769" t="n">
+        <v>46.5</v>
+      </c>
       <c r="K769" t="inlineStr"/>
-      <c r="L769" t="inlineStr"/>
+      <c r="L769" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M769" t="n">
         <v>1</v>
       </c>
@@ -27700,7 +28354,11 @@
       </c>
       <c r="J770" t="inlineStr"/>
       <c r="K770" t="inlineStr"/>
-      <c r="L770" t="inlineStr"/>
+      <c r="L770" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M770" t="n">
         <v>1</v>
       </c>
@@ -27728,18 +28386,16 @@
         <v>46.40000000000016</v>
       </c>
       <c r="H771" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I771" t="n">
         <v>0</v>
       </c>
-      <c r="J771" t="n">
-        <v>46.5</v>
-      </c>
+      <c r="J771" t="inlineStr"/>
       <c r="K771" t="inlineStr"/>
       <c r="L771" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M771" t="n">
@@ -27810,14 +28466,12 @@
         <v>46.32000000000015</v>
       </c>
       <c r="H773" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I773" t="n">
         <v>0</v>
       </c>
-      <c r="J773" t="n">
-        <v>46.3</v>
-      </c>
+      <c r="J773" t="inlineStr"/>
       <c r="K773" t="inlineStr"/>
       <c r="L773" t="inlineStr">
         <is>
@@ -27851,14 +28505,12 @@
         <v>46.38000000000015</v>
       </c>
       <c r="H774" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I774" t="n">
         <v>0</v>
       </c>
-      <c r="J774" t="n">
-        <v>46.3</v>
-      </c>
+      <c r="J774" t="inlineStr"/>
       <c r="K774" t="inlineStr"/>
       <c r="L774" t="inlineStr">
         <is>
@@ -27892,14 +28544,12 @@
         <v>46.36000000000015</v>
       </c>
       <c r="H775" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I775" t="n">
         <v>0</v>
       </c>
-      <c r="J775" t="n">
-        <v>46.6</v>
-      </c>
+      <c r="J775" t="inlineStr"/>
       <c r="K775" t="inlineStr"/>
       <c r="L775" t="inlineStr">
         <is>
@@ -27933,14 +28583,12 @@
         <v>46.30000000000015</v>
       </c>
       <c r="H776" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I776" t="n">
         <v>0</v>
       </c>
-      <c r="J776" t="n">
-        <v>46.2</v>
-      </c>
+      <c r="J776" t="inlineStr"/>
       <c r="K776" t="inlineStr"/>
       <c r="L776" t="inlineStr">
         <is>
@@ -27980,7 +28628,7 @@
         <v>0</v>
       </c>
       <c r="J777" t="n">
-        <v>46.4</v>
+        <v>46.1</v>
       </c>
       <c r="K777" t="inlineStr"/>
       <c r="L777" t="inlineStr">
@@ -28062,7 +28710,7 @@
         <v>0</v>
       </c>
       <c r="J779" t="n">
-        <v>46.9</v>
+        <v>46.6</v>
       </c>
       <c r="K779" t="inlineStr"/>
       <c r="L779" t="inlineStr">
@@ -28103,7 +28751,7 @@
         <v>0</v>
       </c>
       <c r="J780" t="n">
-        <v>46.5</v>
+        <v>46.7</v>
       </c>
       <c r="K780" t="inlineStr"/>
       <c r="L780" t="inlineStr">
@@ -28138,14 +28786,12 @@
         <v>46.64000000000015</v>
       </c>
       <c r="H781" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I781" t="n">
         <v>0</v>
       </c>
-      <c r="J781" t="n">
-        <v>46.7</v>
-      </c>
+      <c r="J781" t="inlineStr"/>
       <c r="K781" t="inlineStr"/>
       <c r="L781" t="inlineStr">
         <is>
@@ -28179,14 +28825,12 @@
         <v>46.68000000000016</v>
       </c>
       <c r="H782" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I782" t="n">
         <v>0</v>
       </c>
-      <c r="J782" t="n">
-        <v>46.7</v>
-      </c>
+      <c r="J782" t="inlineStr"/>
       <c r="K782" t="inlineStr"/>
       <c r="L782" t="inlineStr">
         <is>
@@ -28844,14 +29488,12 @@
         <v>46.52000000000018</v>
       </c>
       <c r="H799" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I799" t="n">
         <v>0</v>
       </c>
-      <c r="J799" t="n">
-        <v>46.7</v>
-      </c>
+      <c r="J799" t="inlineStr"/>
       <c r="K799" t="inlineStr"/>
       <c r="L799" t="inlineStr">
         <is>
@@ -28885,14 +29527,12 @@
         <v>46.56000000000019</v>
       </c>
       <c r="H800" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I800" t="n">
         <v>0</v>
       </c>
-      <c r="J800" t="n">
-        <v>46.7</v>
-      </c>
+      <c r="J800" t="inlineStr"/>
       <c r="K800" t="inlineStr"/>
       <c r="L800" t="inlineStr">
         <is>

--- a/BackTest/2019-10-26 BackTest ADA.xlsx
+++ b/BackTest/2019-10-26 BackTest ADA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-142577.76473605</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>-142577.76473605</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>45.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>-142577.76473605</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,19 +550,11 @@
         <v>-196377.85633605</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -603,19 +583,11 @@
         <v>-187781.84743605</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>45</v>
-      </c>
-      <c r="J6" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -644,19 +616,11 @@
         <v>-188031.84743605</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>45.2</v>
-      </c>
-      <c r="J7" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -685,19 +649,11 @@
         <v>-172171.87063605</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -726,19 +682,11 @@
         <v>-172171.87063605</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>45.2</v>
-      </c>
-      <c r="J9" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -767,19 +715,11 @@
         <v>-173106.55033605</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>45.2</v>
-      </c>
-      <c r="J10" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -808,19 +748,11 @@
         <v>-233763.35943605</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -849,19 +781,11 @@
         <v>-232709.97913605</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>45</v>
-      </c>
-      <c r="J12" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -890,19 +814,11 @@
         <v>-232709.97913605</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="J13" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -931,19 +847,11 @@
         <v>-232709.97913605</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="J14" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -972,19 +880,11 @@
         <v>-207389.22693605</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="J15" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -1013,19 +913,11 @@
         <v>-231064.22713605</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>45.2</v>
-      </c>
-      <c r="J16" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1054,19 +946,11 @@
         <v>-231064.22713605</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="J17" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1095,19 +979,11 @@
         <v>-231064.22713605</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="J18" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1136,19 +1012,11 @@
         <v>-231064.22713605</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="J19" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1177,19 +1045,11 @@
         <v>64166.73736394997</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="J20" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1218,19 +1078,11 @@
         <v>54256.02396394997</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>45.2</v>
-      </c>
-      <c r="J21" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1259,19 +1111,11 @@
         <v>54256.02396394997</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="J22" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1300,19 +1144,11 @@
         <v>54256.02396394997</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="J23" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1341,19 +1177,11 @@
         <v>54585.37376394997</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="J24" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1382,19 +1210,11 @@
         <v>53648.27526394997</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>45.2</v>
-      </c>
-      <c r="J25" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1423,19 +1243,11 @@
         <v>59668.27720907998</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="J26" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1464,19 +1276,11 @@
         <v>59668.27720907998</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>45.2</v>
-      </c>
-      <c r="J27" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1505,19 +1309,11 @@
         <v>57044.23730907997</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>45.2</v>
-      </c>
-      <c r="J28" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1546,19 +1342,11 @@
         <v>77998.66190907996</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>45</v>
-      </c>
-      <c r="J29" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1587,19 +1375,11 @@
         <v>77998.66190907996</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="J30" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1628,19 +1408,11 @@
         <v>77299.45920907997</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="J31" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1669,19 +1441,11 @@
         <v>92517.95170907996</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>45</v>
-      </c>
-      <c r="J32" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1710,19 +1474,11 @@
         <v>86598.65040907996</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="J33" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1751,19 +1507,11 @@
         <v>86598.65040907996</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>45</v>
-      </c>
-      <c r="J34" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1792,19 +1540,11 @@
         <v>92518.78310907996</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>45</v>
-      </c>
-      <c r="J35" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1833,19 +1573,11 @@
         <v>88518.48790907997</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>45.2</v>
-      </c>
-      <c r="J36" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1874,19 +1606,11 @@
         <v>94359.30390907997</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="J37" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1915,19 +1639,11 @@
         <v>94359.30390907997</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>45.2</v>
-      </c>
-      <c r="J38" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1956,19 +1672,11 @@
         <v>94199.46310907997</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>45.2</v>
-      </c>
-      <c r="J39" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1997,19 +1705,11 @@
         <v>94199.46310907997</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="J40" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -2038,19 +1738,11 @@
         <v>94269.46310907997</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="J41" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2079,19 +1771,11 @@
         <v>94269.46310907997</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>45.3</v>
-      </c>
-      <c r="J42" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2120,19 +1804,11 @@
         <v>94269.46310907997</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>45.3</v>
-      </c>
-      <c r="J43" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2161,19 +1837,11 @@
         <v>94269.46310907997</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>45.3</v>
-      </c>
-      <c r="J44" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2202,19 +1870,11 @@
         <v>73485.23960907996</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>45.3</v>
-      </c>
-      <c r="J45" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2243,19 +1903,11 @@
         <v>75738.59880907997</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>45.2</v>
-      </c>
-      <c r="J46" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2284,19 +1936,11 @@
         <v>75738.59880907997</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>45.3</v>
-      </c>
-      <c r="J47" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2325,19 +1969,11 @@
         <v>462210.00840908</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>45.3</v>
-      </c>
-      <c r="J48" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2366,19 +2002,11 @@
         <v>434758.58790908</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>45.4</v>
-      </c>
-      <c r="J49" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2410,14 +2038,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2446,19 +2068,11 @@
         <v>439316.8742090799</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>45.3</v>
-      </c>
-      <c r="J51" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2490,14 +2104,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2529,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2568,14 +2170,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2607,14 +2203,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2646,14 +2236,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2685,14 +2269,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2724,14 +2302,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2763,14 +2335,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2799,17 +2365,11 @@
         <v>1148744.04250908</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2838,17 +2398,11 @@
         <v>488933.5900090801</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2877,17 +2431,11 @@
         <v>107132.6325090801</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2916,17 +2464,11 @@
         <v>214114.9368090801</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2955,17 +2497,11 @@
         <v>202210.5357090801</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2994,17 +2530,11 @@
         <v>202210.5357090801</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -3033,17 +2563,11 @@
         <v>56520.31600908015</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -3075,14 +2599,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3114,14 +2632,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3150,17 +2662,11 @@
         <v>304162.1606090802</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3189,17 +2695,11 @@
         <v>304162.1606090802</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3228,17 +2728,11 @@
         <v>308962.1606090802</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3267,17 +2761,11 @@
         <v>308356.1877090802</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3306,17 +2794,11 @@
         <v>299304.0659090801</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3345,17 +2827,11 @@
         <v>299304.0659090801</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3384,17 +2860,11 @@
         <v>299304.0659090801</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3423,17 +2893,11 @@
         <v>276517.0236090801</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3462,17 +2926,11 @@
         <v>276517.0236090801</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3501,17 +2959,11 @@
         <v>276517.0236090801</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3540,17 +2992,11 @@
         <v>246957.4731090801</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3579,17 +3025,11 @@
         <v>246957.4731090801</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3618,17 +3058,11 @@
         <v>246957.4731090801</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3657,17 +3091,11 @@
         <v>246957.4731090801</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3696,17 +3124,11 @@
         <v>255672.0940090801</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3735,17 +3157,11 @@
         <v>435770.9909090801</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3774,17 +3190,11 @@
         <v>445214.0763090801</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3813,17 +3223,11 @@
         <v>445214.0763090801</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3852,17 +3256,11 @@
         <v>475047.2159090801</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3891,17 +3289,11 @@
         <v>312372.4894090801</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3930,17 +3322,11 @@
         <v>312372.4894090801</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3969,17 +3355,11 @@
         <v>-708977.5531909199</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -4008,17 +3388,11 @@
         <v>-708977.5531909199</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -4047,17 +3421,11 @@
         <v>-705257.97669092</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -4086,17 +3454,11 @@
         <v>-693844.0132909199</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4125,17 +3487,11 @@
         <v>-693844.0132909199</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4164,17 +3520,11 @@
         <v>-693844.0132909199</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4203,17 +3553,11 @@
         <v>-693844.0132909199</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4242,17 +3586,11 @@
         <v>-693844.0132909199</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4281,17 +3619,11 @@
         <v>-693844.0132909199</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4323,14 +3655,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4359,17 +3685,11 @@
         <v>-693844.0132909199</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4398,17 +3718,11 @@
         <v>-693844.0132909199</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4437,17 +3751,11 @@
         <v>-693844.0132909199</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4476,17 +3784,11 @@
         <v>-693844.0132909199</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4518,14 +3820,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4557,14 +3853,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4596,14 +3886,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4635,14 +3919,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4674,14 +3952,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4713,14 +3985,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4752,14 +4018,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4791,14 +4051,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4830,14 +4084,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4869,14 +4117,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4908,14 +4150,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4947,14 +4183,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4986,14 +4216,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -5025,14 +4249,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -5064,14 +4282,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -5103,14 +4315,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5142,14 +4348,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5181,14 +4381,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5220,14 +4414,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5259,14 +4447,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5298,14 +4480,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5337,14 +4513,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5376,14 +4546,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5415,14 +4579,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5454,14 +4612,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5493,14 +4645,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5532,14 +4678,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5571,14 +4711,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5610,14 +4744,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5649,14 +4777,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5688,14 +4810,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5727,14 +4843,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5766,14 +4876,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5805,14 +4909,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5844,14 +4942,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5883,14 +4975,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5922,14 +5008,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5961,14 +5041,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -6000,14 +5074,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -6039,14 +5107,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -6078,14 +5140,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -6117,14 +5173,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -6156,14 +5206,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6195,14 +5239,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6234,14 +5272,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6273,14 +5305,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6312,14 +5338,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6351,14 +5371,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6390,14 +5404,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6429,14 +5437,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6468,14 +5470,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6507,14 +5503,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6546,14 +5536,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6585,14 +5569,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6624,14 +5602,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6663,14 +5635,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6702,14 +5668,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6741,14 +5701,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6780,14 +5734,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6819,14 +5767,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6858,14 +5800,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6897,14 +5833,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6936,14 +5866,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6975,14 +5899,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -7014,14 +5932,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -7053,14 +5965,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -7092,14 +5998,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -7131,14 +6031,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -7170,14 +6064,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -7209,14 +6097,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7248,14 +6130,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7287,14 +6163,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7326,14 +6196,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7365,14 +6229,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7404,14 +6262,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7443,14 +6295,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7482,14 +6328,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7521,14 +6361,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7560,14 +6394,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7599,14 +6427,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7638,14 +6460,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7677,14 +6493,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7716,14 +6526,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7755,14 +6559,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7794,14 +6592,8 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7833,14 +6625,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7872,14 +6658,8 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7911,14 +6691,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7950,14 +6724,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7989,14 +6757,8 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -8028,14 +6790,8 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -8067,14 +6823,8 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -8106,14 +6856,8 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -8145,14 +6889,8 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -8184,14 +6922,8 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -8223,14 +6955,8 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -8262,14 +6988,8 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -8301,14 +7021,8 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8340,14 +7054,8 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8379,14 +7087,8 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8418,14 +7120,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8457,14 +7153,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8496,14 +7186,8 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8535,14 +7219,8 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8574,14 +7252,8 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8613,14 +7285,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8652,14 +7318,8 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8691,14 +7351,8 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8730,14 +7384,8 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8769,14 +7417,8 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8808,14 +7450,8 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8847,14 +7483,8 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8886,14 +7516,8 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8925,14 +7549,8 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8964,14 +7582,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -9003,14 +7615,8 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -9042,14 +7648,8 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -9081,14 +7681,8 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -9120,14 +7714,8 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -9159,14 +7747,8 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -9198,14 +7780,8 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -9237,14 +7813,8 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -9276,14 +7846,8 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -9315,14 +7879,8 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -9354,14 +7912,8 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9393,14 +7945,8 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9432,14 +7978,8 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9471,14 +8011,8 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9510,14 +8044,8 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9549,14 +8077,8 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9588,14 +8110,8 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9627,14 +8143,8 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9666,14 +8176,8 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9705,14 +8209,8 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9744,14 +8242,8 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9783,14 +8275,8 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9822,14 +8308,8 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9861,14 +8341,8 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9900,14 +8374,8 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9939,14 +8407,8 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9978,14 +8440,8 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -10017,14 +8473,8 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -10056,14 +8506,8 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -10095,14 +8539,8 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -10134,14 +8572,8 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -10173,14 +8605,8 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -10212,14 +8638,8 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -10251,14 +8671,8 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -10290,14 +8704,8 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -10329,14 +8737,8 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -10368,14 +8770,8 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -10407,14 +8803,8 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -10446,14 +8836,8 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10485,14 +8869,8 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10524,14 +8902,8 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10563,14 +8935,8 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10602,14 +8968,8 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10641,14 +9001,8 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10680,14 +9034,8 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10719,14 +9067,8 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10758,14 +9100,8 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10797,14 +9133,8 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10836,14 +9166,8 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10875,14 +9199,8 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10914,14 +9232,8 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10953,14 +9265,8 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10992,14 +9298,8 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -11031,14 +9331,8 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -11070,14 +9364,8 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -11109,14 +9397,8 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -11148,14 +9430,8 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -11187,14 +9463,8 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -11226,14 +9496,8 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -11265,14 +9529,8 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -11304,14 +9562,8 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -11343,14 +9595,8 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -11382,14 +9628,8 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -11421,14 +9661,8 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -11460,14 +9694,8 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -11499,14 +9727,8 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -11538,14 +9760,8 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -11577,14 +9793,8 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11616,14 +9826,8 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11655,14 +9859,8 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11694,14 +9892,8 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11730,23 +9922,15 @@
         <v>57336.88416183005</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
-        <v>1.061518847006652</v>
-      </c>
-      <c r="M289" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -11771,7 +9955,7 @@
         <v>58336.88416183005</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -11903,7 +10087,7 @@
         <v>39265.29886183004</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -11969,7 +10153,7 @@
         <v>95568.22616183004</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -12035,7 +10219,7 @@
         <v>94418.53246183004</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -13190,7 +11374,7 @@
         <v>174203.6510618301</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -13256,7 +11440,7 @@
         <v>215440.7644638901</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -13289,7 +11473,7 @@
         <v>211440.76556389</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -13355,7 +11539,7 @@
         <v>140778.08256389</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -13388,7 +11572,7 @@
         <v>103880.57176389</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -13421,7 +11605,7 @@
         <v>112901.58686389</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -13454,7 +11638,7 @@
         <v>112901.58686389</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -13487,7 +11671,7 @@
         <v>112901.58686389</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -13520,7 +11704,7 @@
         <v>85761.96036389004</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -13553,7 +11737,7 @@
         <v>85761.96036389004</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -13586,7 +11770,7 @@
         <v>51623.23126389005</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -13619,7 +11803,7 @@
         <v>51623.23126389005</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -13652,7 +11836,7 @@
         <v>51623.23126389005</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -13685,7 +11869,7 @@
         <v>48130.28296389004</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -13718,7 +11902,7 @@
         <v>48130.28296389004</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -13751,7 +11935,7 @@
         <v>48130.28296389004</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -13784,7 +11968,7 @@
         <v>48130.28296389004</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -13817,7 +12001,7 @@
         <v>26094.64106389005</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -13850,7 +12034,7 @@
         <v>26094.64106389005</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -13883,7 +12067,7 @@
         <v>117244.89936389</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -13916,7 +12100,7 @@
         <v>126828.95596389</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -13949,7 +12133,7 @@
         <v>124671.65906389</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -13982,7 +12166,7 @@
         <v>127065.52046389</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -14015,7 +12199,7 @@
         <v>127065.52046389</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -14048,7 +12232,7 @@
         <v>126667.42116389</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -14081,7 +12265,7 @@
         <v>141667.42116389</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -14114,7 +12298,7 @@
         <v>141667.42116389</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -14147,7 +12331,7 @@
         <v>76661.79696389005</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -14180,7 +12364,7 @@
         <v>84139.98246389005</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -14213,7 +12397,7 @@
         <v>73550.40136389005</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -14246,7 +12430,7 @@
         <v>73550.40146389006</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -14279,7 +12463,7 @@
         <v>23544.72896389005</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -14312,7 +12496,7 @@
         <v>23544.72896389005</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -16424,7 +14608,7 @@
         <v>-537521.3904381698</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -16457,7 +14641,7 @@
         <v>-513216.8246381698</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -16490,7 +14674,7 @@
         <v>-513216.8246381698</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -16523,7 +14707,7 @@
         <v>-493764.2048381699</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -16556,7 +14740,7 @@
         <v>-486264.7113381699</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -16589,7 +14773,7 @@
         <v>-499958.4273381699</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -16622,7 +14806,7 @@
         <v>-505104.4848381699</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -16655,7 +14839,7 @@
         <v>-483513.4670381699</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -16688,7 +14872,7 @@
         <v>-483513.4670381699</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -16721,7 +14905,7 @@
         <v>-480513.4670381699</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -16754,7 +14938,7 @@
         <v>-480513.4670381699</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -16787,7 +14971,7 @@
         <v>-479513.4670381699</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -16820,7 +15004,7 @@
         <v>-480469.8622381699</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -16853,7 +15037,7 @@
         <v>-480139.3631381699</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -16886,7 +15070,7 @@
         <v>-480139.3631381699</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -16919,7 +15103,7 @@
         <v>-479506.2752381699</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -16952,7 +15136,7 @@
         <v>-473506.2752381699</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -16985,7 +15169,7 @@
         <v>-459364.3752381699</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -17018,7 +15202,7 @@
         <v>-449240.0067381699</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -17447,7 +15631,7 @@
         <v>-538359.8213990199</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -17480,7 +15664,7 @@
         <v>-536266.6940990199</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -17513,7 +15697,7 @@
         <v>-387875.3907990198</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -17546,7 +15730,7 @@
         <v>-426836.5961990198</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -17579,7 +15763,7 @@
         <v>-619826.9800990198</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -17612,7 +15796,7 @@
         <v>-619826.9800990198</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -17645,7 +15829,7 @@
         <v>-616140.8521990199</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -17678,7 +15862,7 @@
         <v>-616140.8521990199</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -17711,7 +15895,7 @@
         <v>-614278.0284990199</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -17744,7 +15928,7 @@
         <v>-614278.0284990199</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -17777,7 +15961,7 @@
         <v>-820164.00139902</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -17810,7 +15994,7 @@
         <v>-816972.74149902</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -17843,7 +16027,7 @@
         <v>-816972.74149902</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -17876,7 +16060,7 @@
         <v>-798526.3589990201</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -17909,7 +16093,7 @@
         <v>-836208.9144990201</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -17942,7 +16126,7 @@
         <v>-836208.9144990201</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -17975,7 +16159,7 @@
         <v>-927811.8360990201</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -18008,7 +16192,7 @@
         <v>-1005364.50019902</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -18041,7 +16225,7 @@
         <v>-964784.2129990201</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -18074,7 +16258,7 @@
         <v>-809868.0145990201</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -18107,7 +16291,7 @@
         <v>-843364.1935990201</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -18140,7 +16324,7 @@
         <v>-1060361.64899902</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -18173,7 +16357,7 @@
         <v>-1317869.12749902</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -18206,7 +16390,7 @@
         <v>-1451940.67229902</v>
       </c>
       <c r="H485" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -18239,7 +16423,7 @@
         <v>-1413182.98919902</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -18272,7 +16456,7 @@
         <v>-1413182.98919902</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -18305,7 +16489,7 @@
         <v>-1516268.50849902</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -18338,7 +16522,7 @@
         <v>-1480820.53779902</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -18371,7 +16555,7 @@
         <v>-1590239.31119902</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -18404,7 +16588,7 @@
         <v>-1526096.15899902</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -18437,7 +16621,7 @@
         <v>-1563518.473499021</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -18470,7 +16654,7 @@
         <v>-1342709.962944701</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -18503,7 +16687,7 @@
         <v>-1368385.539044701</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -18536,7 +16720,7 @@
         <v>-1368385.539044701</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -18569,7 +16753,7 @@
         <v>-1368385.539044701</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -18602,7 +16786,7 @@
         <v>-1368385.539044701</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -18635,7 +16819,7 @@
         <v>-1381546.9712447</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -18668,7 +16852,7 @@
         <v>-1381546.9712447</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -18701,7 +16885,7 @@
         <v>-1354394.5085447</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -18734,7 +16918,7 @@
         <v>-1354394.5085447</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -18767,7 +16951,7 @@
         <v>-1354394.5085447</v>
       </c>
       <c r="H502" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -18800,7 +16984,7 @@
         <v>-1448133.5259447</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -18833,7 +17017,7 @@
         <v>-1435897.5480447</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -18866,7 +17050,7 @@
         <v>-1440401.7377447</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -18899,7 +17083,7 @@
         <v>-1467089.0183447</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -18932,7 +17116,7 @@
         <v>-1453239.3939447</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -18965,7 +17149,7 @@
         <v>-1451630.87467493</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -18998,7 +17182,7 @@
         <v>-1471744.14377493</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -19031,7 +17215,7 @@
         <v>-1471744.14377493</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -19064,7 +17248,7 @@
         <v>-1565980.36797493</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -19097,7 +17281,7 @@
         <v>-1622131.86147493</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -19130,7 +17314,7 @@
         <v>-1579368.27187493</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -19163,7 +17347,7 @@
         <v>-1608819.46987493</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -19196,7 +17380,7 @@
         <v>-1608819.46987493</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -19229,7 +17413,7 @@
         <v>-1608819.46987493</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -19262,7 +17446,7 @@
         <v>-1646630.93627493</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -19295,7 +17479,7 @@
         <v>-1631216.57697493</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -19328,7 +17512,7 @@
         <v>-1631216.57697493</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -19361,7 +17545,7 @@
         <v>-1927281.770474931</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -19394,7 +17578,7 @@
         <v>-1952881.372974931</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -19427,7 +17611,7 @@
         <v>-1948413.253474931</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -19460,7 +17644,7 @@
         <v>-2021048.655274931</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -19493,7 +17677,7 @@
         <v>-2114790.867774931</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -19526,7 +17710,7 @@
         <v>-2107025.487974931</v>
       </c>
       <c r="H525" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -19559,7 +17743,7 @@
         <v>-2107025.487974931</v>
       </c>
       <c r="H526" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -19592,7 +17776,7 @@
         <v>-2103552.14977493</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -19625,7 +17809,7 @@
         <v>-2103542.14977493</v>
       </c>
       <c r="H528" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -19658,7 +17842,7 @@
         <v>-2140493.55217493</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -19691,7 +17875,7 @@
         <v>-2140493.55217493</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -19724,7 +17908,7 @@
         <v>-2140493.55217493</v>
       </c>
       <c r="H531" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -19757,7 +17941,7 @@
         <v>-2140493.55217493</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -19790,7 +17974,7 @@
         <v>-2143062.334474931</v>
       </c>
       <c r="H533" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -19823,7 +18007,7 @@
         <v>-2143052.334474931</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -29558,11 +27742,17 @@
         <v>-3543018.261848932</v>
       </c>
       <c r="H829" t="n">
-        <v>0</v>
-      </c>
-      <c r="I829" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I829" t="n">
+        <v>46.2</v>
+      </c>
       <c r="J829" t="inlineStr"/>
-      <c r="K829" t="inlineStr"/>
+      <c r="K829" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L829" t="n">
         <v>1</v>
       </c>
@@ -29591,11 +27781,17 @@
         <v>-3541877.920448932</v>
       </c>
       <c r="H830" t="n">
-        <v>0</v>
-      </c>
-      <c r="I830" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I830" t="n">
+        <v>46.3</v>
+      </c>
       <c r="J830" t="inlineStr"/>
-      <c r="K830" t="inlineStr"/>
+      <c r="K830" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L830" t="n">
         <v>1</v>
       </c>
@@ -29624,11 +27820,17 @@
         <v>-3541877.920448932</v>
       </c>
       <c r="H831" t="n">
-        <v>0</v>
-      </c>
-      <c r="I831" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I831" t="n">
+        <v>46.4</v>
+      </c>
       <c r="J831" t="inlineStr"/>
-      <c r="K831" t="inlineStr"/>
+      <c r="K831" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L831" t="n">
         <v>1</v>
       </c>
@@ -29661,7 +27863,11 @@
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
-      <c r="K832" t="inlineStr"/>
+      <c r="K832" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L832" t="n">
         <v>1</v>
       </c>
@@ -29694,7 +27900,11 @@
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
-      <c r="K833" t="inlineStr"/>
+      <c r="K833" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L833" t="n">
         <v>1</v>
       </c>
@@ -29727,7 +27937,11 @@
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
-      <c r="K834" t="inlineStr"/>
+      <c r="K834" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L834" t="n">
         <v>1</v>
       </c>
@@ -29760,7 +27974,11 @@
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
-      <c r="K835" t="inlineStr"/>
+      <c r="K835" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L835" t="n">
         <v>1</v>
       </c>
@@ -29793,7 +28011,11 @@
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
-      <c r="K836" t="inlineStr"/>
+      <c r="K836" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L836" t="n">
         <v>1</v>
       </c>
@@ -29822,11 +28044,17 @@
         <v>-3710907.033622372</v>
       </c>
       <c r="H837" t="n">
-        <v>0</v>
-      </c>
-      <c r="I837" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I837" t="n">
+        <v>46.5</v>
+      </c>
       <c r="J837" t="inlineStr"/>
-      <c r="K837" t="inlineStr"/>
+      <c r="K837" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L837" t="n">
         <v>1</v>
       </c>
@@ -29859,7 +28087,11 @@
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
-      <c r="K838" t="inlineStr"/>
+      <c r="K838" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L838" t="n">
         <v>1</v>
       </c>
@@ -29892,7 +28124,11 @@
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
-      <c r="K839" t="inlineStr"/>
+      <c r="K839" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L839" t="n">
         <v>1</v>
       </c>
@@ -29925,7 +28161,11 @@
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
-      <c r="K840" t="inlineStr"/>
+      <c r="K840" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L840" t="n">
         <v>1</v>
       </c>
@@ -29958,7 +28198,11 @@
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
-      <c r="K841" t="inlineStr"/>
+      <c r="K841" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L841" t="n">
         <v>1</v>
       </c>
@@ -29991,7 +28235,11 @@
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
-      <c r="K842" t="inlineStr"/>
+      <c r="K842" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L842" t="n">
         <v>1</v>
       </c>
@@ -30024,7 +28272,11 @@
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
-      <c r="K843" t="inlineStr"/>
+      <c r="K843" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L843" t="n">
         <v>1</v>
       </c>
@@ -30057,7 +28309,11 @@
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
-      <c r="K844" t="inlineStr"/>
+      <c r="K844" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L844" t="n">
         <v>1</v>
       </c>
@@ -30090,7 +28346,11 @@
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
-      <c r="K845" t="inlineStr"/>
+      <c r="K845" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L845" t="n">
         <v>1</v>
       </c>
@@ -30123,7 +28383,11 @@
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
-      <c r="K846" t="inlineStr"/>
+      <c r="K846" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L846" t="n">
         <v>1</v>
       </c>
@@ -30156,7 +28420,11 @@
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
-      <c r="K847" t="inlineStr"/>
+      <c r="K847" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L847" t="n">
         <v>1</v>
       </c>
@@ -30189,7 +28457,11 @@
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
-      <c r="K848" t="inlineStr"/>
+      <c r="K848" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L848" t="n">
         <v>1</v>
       </c>
@@ -30222,7 +28494,11 @@
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
-      <c r="K849" t="inlineStr"/>
+      <c r="K849" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L849" t="n">
         <v>1</v>
       </c>
@@ -30255,7 +28531,11 @@
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
-      <c r="K850" t="inlineStr"/>
+      <c r="K850" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L850" t="n">
         <v>1</v>
       </c>
@@ -30288,7 +28568,11 @@
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
-      <c r="K851" t="inlineStr"/>
+      <c r="K851" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L851" t="n">
         <v>1</v>
       </c>
@@ -30321,7 +28605,11 @@
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
-      <c r="K852" t="inlineStr"/>
+      <c r="K852" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L852" t="n">
         <v>1</v>
       </c>
@@ -30354,7 +28642,11 @@
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
-      <c r="K853" t="inlineStr"/>
+      <c r="K853" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L853" t="n">
         <v>1</v>
       </c>
@@ -30387,7 +28679,11 @@
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
-      <c r="K854" t="inlineStr"/>
+      <c r="K854" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L854" t="n">
         <v>1</v>
       </c>
@@ -30420,7 +28716,11 @@
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
-      <c r="K855" t="inlineStr"/>
+      <c r="K855" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L855" t="n">
         <v>1</v>
       </c>
@@ -30453,7 +28753,11 @@
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
-      <c r="K856" t="inlineStr"/>
+      <c r="K856" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L856" t="n">
         <v>1</v>
       </c>
@@ -30486,7 +28790,11 @@
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
-      <c r="K857" t="inlineStr"/>
+      <c r="K857" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L857" t="n">
         <v>1</v>
       </c>
@@ -30519,7 +28827,11 @@
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
-      <c r="K858" t="inlineStr"/>
+      <c r="K858" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L858" t="n">
         <v>1</v>
       </c>
@@ -30552,7 +28864,11 @@
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
-      <c r="K859" t="inlineStr"/>
+      <c r="K859" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L859" t="n">
         <v>1</v>
       </c>
@@ -30585,7 +28901,11 @@
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
-      <c r="K860" t="inlineStr"/>
+      <c r="K860" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L860" t="n">
         <v>1</v>
       </c>
@@ -30618,7 +28938,11 @@
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
-      <c r="K861" t="inlineStr"/>
+      <c r="K861" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L861" t="n">
         <v>1</v>
       </c>
@@ -30651,7 +28975,11 @@
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
-      <c r="K862" t="inlineStr"/>
+      <c r="K862" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L862" t="n">
         <v>1</v>
       </c>
@@ -30684,7 +29012,11 @@
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
-      <c r="K863" t="inlineStr"/>
+      <c r="K863" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L863" t="n">
         <v>1</v>
       </c>
@@ -30717,7 +29049,11 @@
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
-      <c r="K864" t="inlineStr"/>
+      <c r="K864" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L864" t="n">
         <v>1</v>
       </c>
@@ -30750,7 +29086,11 @@
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
-      <c r="K865" t="inlineStr"/>
+      <c r="K865" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L865" t="n">
         <v>1</v>
       </c>
@@ -30783,7 +29123,11 @@
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
-      <c r="K866" t="inlineStr"/>
+      <c r="K866" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L866" t="n">
         <v>1</v>
       </c>
@@ -30816,7 +29160,11 @@
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
-      <c r="K867" t="inlineStr"/>
+      <c r="K867" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L867" t="n">
         <v>1</v>
       </c>
@@ -30849,7 +29197,11 @@
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
-      <c r="K868" t="inlineStr"/>
+      <c r="K868" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L868" t="n">
         <v>1</v>
       </c>
@@ -30882,7 +29234,11 @@
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
-      <c r="K869" t="inlineStr"/>
+      <c r="K869" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L869" t="n">
         <v>1</v>
       </c>
@@ -30915,7 +29271,11 @@
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
-      <c r="K870" t="inlineStr"/>
+      <c r="K870" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L870" t="n">
         <v>1</v>
       </c>
@@ -30948,7 +29308,11 @@
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
-      <c r="K871" t="inlineStr"/>
+      <c r="K871" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L871" t="n">
         <v>1</v>
       </c>
@@ -30981,7 +29345,11 @@
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
-      <c r="K872" t="inlineStr"/>
+      <c r="K872" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L872" t="n">
         <v>1</v>
       </c>
@@ -31014,7 +29382,11 @@
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
-      <c r="K873" t="inlineStr"/>
+      <c r="K873" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L873" t="n">
         <v>1</v>
       </c>
@@ -31047,7 +29419,11 @@
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
-      <c r="K874" t="inlineStr"/>
+      <c r="K874" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L874" t="n">
         <v>1</v>
       </c>
@@ -31080,7 +29456,11 @@
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
-      <c r="K875" t="inlineStr"/>
+      <c r="K875" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L875" t="n">
         <v>1</v>
       </c>
@@ -31113,7 +29493,11 @@
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
-      <c r="K876" t="inlineStr"/>
+      <c r="K876" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L876" t="n">
         <v>1</v>
       </c>
@@ -31146,7 +29530,11 @@
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
-      <c r="K877" t="inlineStr"/>
+      <c r="K877" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L877" t="n">
         <v>1</v>
       </c>
@@ -31179,7 +29567,11 @@
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
-      <c r="K878" t="inlineStr"/>
+      <c r="K878" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L878" t="n">
         <v>1</v>
       </c>
@@ -31212,7 +29604,11 @@
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
-      <c r="K879" t="inlineStr"/>
+      <c r="K879" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L879" t="n">
         <v>1</v>
       </c>
@@ -31245,7 +29641,11 @@
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
-      <c r="K880" t="inlineStr"/>
+      <c r="K880" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L880" t="n">
         <v>1</v>
       </c>
@@ -31278,7 +29678,11 @@
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
-      <c r="K881" t="inlineStr"/>
+      <c r="K881" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L881" t="n">
         <v>1</v>
       </c>
@@ -31311,7 +29715,11 @@
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
-      <c r="K882" t="inlineStr"/>
+      <c r="K882" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L882" t="n">
         <v>1</v>
       </c>
@@ -31344,7 +29752,11 @@
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
-      <c r="K883" t="inlineStr"/>
+      <c r="K883" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L883" t="n">
         <v>1</v>
       </c>
@@ -31377,7 +29789,11 @@
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
-      <c r="K884" t="inlineStr"/>
+      <c r="K884" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L884" t="n">
         <v>1</v>
       </c>
@@ -31406,11 +29822,17 @@
         <v>-3710118.320815991</v>
       </c>
       <c r="H885" t="n">
-        <v>0</v>
-      </c>
-      <c r="I885" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I885" t="n">
+        <v>46.9</v>
+      </c>
       <c r="J885" t="inlineStr"/>
-      <c r="K885" t="inlineStr"/>
+      <c r="K885" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L885" t="n">
         <v>1</v>
       </c>
@@ -31443,7 +29865,11 @@
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
-      <c r="K886" t="inlineStr"/>
+      <c r="K886" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L886" t="n">
         <v>1</v>
       </c>
@@ -31476,7 +29902,11 @@
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
-      <c r="K887" t="inlineStr"/>
+      <c r="K887" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L887" t="n">
         <v>1</v>
       </c>
@@ -31509,7 +29939,11 @@
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
-      <c r="K888" t="inlineStr"/>
+      <c r="K888" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L888" t="n">
         <v>1</v>
       </c>
@@ -31538,11 +29972,17 @@
         <v>-3641439.399715991</v>
       </c>
       <c r="H889" t="n">
-        <v>0</v>
-      </c>
-      <c r="I889" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I889" t="n">
+        <v>47</v>
+      </c>
       <c r="J889" t="inlineStr"/>
-      <c r="K889" t="inlineStr"/>
+      <c r="K889" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L889" t="n">
         <v>1</v>
       </c>
@@ -31571,11 +30011,17 @@
         <v>-3640141.621715991</v>
       </c>
       <c r="H890" t="n">
-        <v>0</v>
-      </c>
-      <c r="I890" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I890" t="n">
+        <v>46.9</v>
+      </c>
       <c r="J890" t="inlineStr"/>
-      <c r="K890" t="inlineStr"/>
+      <c r="K890" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L890" t="n">
         <v>1</v>
       </c>
@@ -31604,11 +30050,17 @@
         <v>-3640141.621715991</v>
       </c>
       <c r="H891" t="n">
-        <v>0</v>
-      </c>
-      <c r="I891" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I891" t="n">
+        <v>47</v>
+      </c>
       <c r="J891" t="inlineStr"/>
-      <c r="K891" t="inlineStr"/>
+      <c r="K891" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L891" t="n">
         <v>1</v>
       </c>
@@ -31641,7 +30093,11 @@
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
-      <c r="K892" t="inlineStr"/>
+      <c r="K892" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L892" t="n">
         <v>1</v>
       </c>
@@ -31670,11 +30126,17 @@
         <v>-3640745.685115991</v>
       </c>
       <c r="H893" t="n">
-        <v>0</v>
-      </c>
-      <c r="I893" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I893" t="n">
+        <v>47.1</v>
+      </c>
       <c r="J893" t="inlineStr"/>
-      <c r="K893" t="inlineStr"/>
+      <c r="K893" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L893" t="n">
         <v>1</v>
       </c>
@@ -31707,7 +30169,11 @@
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
-      <c r="K894" t="inlineStr"/>
+      <c r="K894" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L894" t="n">
         <v>1</v>
       </c>
@@ -31740,7 +30206,11 @@
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
-      <c r="K895" t="inlineStr"/>
+      <c r="K895" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L895" t="n">
         <v>1</v>
       </c>
@@ -31773,7 +30243,11 @@
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
-      <c r="K896" t="inlineStr"/>
+      <c r="K896" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L896" t="n">
         <v>1</v>
       </c>
@@ -31802,11 +30276,17 @@
         <v>-3677929.615115991</v>
       </c>
       <c r="H897" t="n">
-        <v>0</v>
-      </c>
-      <c r="I897" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I897" t="n">
+        <v>46.8</v>
+      </c>
       <c r="J897" t="inlineStr"/>
-      <c r="K897" t="inlineStr"/>
+      <c r="K897" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L897" t="n">
         <v>1</v>
       </c>
@@ -31839,7 +30319,11 @@
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
-      <c r="K898" t="inlineStr"/>
+      <c r="K898" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L898" t="n">
         <v>1</v>
       </c>
@@ -31872,7 +30356,11 @@
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
-      <c r="K899" t="inlineStr"/>
+      <c r="K899" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L899" t="n">
         <v>1</v>
       </c>
@@ -31905,7 +30393,11 @@
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
-      <c r="K900" t="inlineStr"/>
+      <c r="K900" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L900" t="n">
         <v>1</v>
       </c>
@@ -31938,7 +30430,11 @@
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
-      <c r="K901" t="inlineStr"/>
+      <c r="K901" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L901" t="n">
         <v>1</v>
       </c>
@@ -31971,7 +30467,11 @@
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
-      <c r="K902" t="inlineStr"/>
+      <c r="K902" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L902" t="n">
         <v>1</v>
       </c>
@@ -32004,7 +30504,11 @@
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
-      <c r="K903" t="inlineStr"/>
+      <c r="K903" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L903" t="n">
         <v>1</v>
       </c>
@@ -32037,13 +30541,17 @@
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
-      <c r="K904" t="inlineStr"/>
+      <c r="K904" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L904" t="n">
         <v>1</v>
       </c>
       <c r="M904" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest ADA.xlsx
+++ b/BackTest/2019-10-26 BackTest ADA.xlsx
@@ -2365,7 +2365,7 @@
         <v>1148744.04250908</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>488933.5900090801</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>107132.6325090801</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>214114.9368090801</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>202210.5357090801</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>202210.5357090801</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>56520.31600908015</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>304162.1606090802</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>304162.1606090802</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>308962.1606090802</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>308356.1877090802</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>299304.0659090801</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>299304.0659090801</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>299304.0659090801</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>276517.0236090801</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>276517.0236090801</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>276517.0236090801</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>246957.4731090801</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>246957.4731090801</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>246957.4731090801</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>246957.4731090801</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>255672.0940090801</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>435770.9909090801</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>445214.0763090801</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>445214.0763090801</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>475047.2159090801</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>312372.4894090801</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>312372.4894090801</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-708977.5531909199</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-708977.5531909199</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-705257.97669092</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-693844.0132909199</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-693844.0132909199</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-693844.0132909199</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-693844.0132909199</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-693844.0132909199</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-693844.0132909199</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-693844.0132909199</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-693844.0132909199</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-693844.0132909199</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-693844.0132909199</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -14344,7 +14344,7 @@
         <v>433033.9217618301</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
         <v>-311684.1569381699</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14410,7 +14410,7 @@
         <v>-436621.3522381699</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14443,7 +14443,7 @@
         <v>-517994.4145381699</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14476,7 +14476,7 @@
         <v>-517994.4145381699</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
         <v>-523657.6660381699</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14938,7 +14938,7 @@
         <v>-480513.4670381699</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -14971,7 +14971,7 @@
         <v>-479513.4670381699</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15004,7 +15004,7 @@
         <v>-480469.8622381699</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
         <v>-480139.3631381699</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15070,7 +15070,7 @@
         <v>-480139.3631381699</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15103,7 +15103,7 @@
         <v>-479506.2752381699</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15136,7 +15136,7 @@
         <v>-473506.2752381699</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15169,7 +15169,7 @@
         <v>-459364.3752381699</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
         <v>-449240.0067381699</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15235,7 +15235,7 @@
         <v>-488912.4593381699</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15268,7 +15268,7 @@
         <v>-523741.7466566199</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15301,7 +15301,7 @@
         <v>-604160.7281566199</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15334,7 +15334,7 @@
         <v>-604160.7281566199</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
         <v>-598542.06689902</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15400,7 +15400,7 @@
         <v>-619922.73899902</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15433,7 +15433,7 @@
         <v>-562099.2873990199</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15466,7 +15466,7 @@
         <v>-562099.2873990199</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15499,7 +15499,7 @@
         <v>-551821.0720990199</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
         <v>-623284.2599990199</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -15565,7 +15565,7 @@
         <v>-623284.2599990199</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -15598,7 +15598,7 @@
         <v>-538359.8213990199</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -15631,7 +15631,7 @@
         <v>-538359.8213990199</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -15664,7 +15664,7 @@
         <v>-536266.6940990199</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
         <v>-387875.3907990198</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -15730,7 +15730,7 @@
         <v>-426836.5961990198</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -15763,7 +15763,7 @@
         <v>-619826.9800990198</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -15796,7 +15796,7 @@
         <v>-619826.9800990198</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -15829,7 +15829,7 @@
         <v>-616140.8521990199</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
         <v>-616140.8521990199</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -15895,7 +15895,7 @@
         <v>-614278.0284990199</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -15928,7 +15928,7 @@
         <v>-614278.0284990199</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -15961,7 +15961,7 @@
         <v>-820164.00139902</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -15994,7 +15994,7 @@
         <v>-816972.74149902</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
         <v>-816972.74149902</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16060,7 +16060,7 @@
         <v>-798526.3589990201</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16093,7 +16093,7 @@
         <v>-836208.9144990201</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16126,7 +16126,7 @@
         <v>-836208.9144990201</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16159,7 +16159,7 @@
         <v>-927811.8360990201</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
         <v>-1005364.50019902</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16225,7 +16225,7 @@
         <v>-964784.2129990201</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16258,7 +16258,7 @@
         <v>-809868.0145990201</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16291,7 +16291,7 @@
         <v>-843364.1935990201</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -16324,7 +16324,7 @@
         <v>-1060361.64899902</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
         <v>-1317869.12749902</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -16390,7 +16390,7 @@
         <v>-1451940.67229902</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -16588,7 +16588,7 @@
         <v>-1526096.15899902</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -16621,7 +16621,7 @@
         <v>-1563518.473499021</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -16654,7 +16654,7 @@
         <v>-1342709.962944701</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
         <v>-1368385.539044701</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -16720,7 +16720,7 @@
         <v>-1368385.539044701</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -16753,7 +16753,7 @@
         <v>-1368385.539044701</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -16786,7 +16786,7 @@
         <v>-1368385.539044701</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -16819,7 +16819,7 @@
         <v>-1381546.9712447</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
         <v>-1381546.9712447</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -27742,1022 +27742,922 @@
         <v>-3543018.261848932</v>
       </c>
       <c r="H829" t="n">
-        <v>1</v>
-      </c>
-      <c r="I829" t="n">
+        <v>0</v>
+      </c>
+      <c r="I829" t="inlineStr"/>
+      <c r="J829" t="inlineStr"/>
+      <c r="K829" t="inlineStr"/>
+      <c r="L829" t="n">
+        <v>1</v>
+      </c>
+      <c r="M829" t="inlineStr"/>
+    </row>
+    <row r="830">
+      <c r="A830" s="1" t="n">
+        <v>828</v>
+      </c>
+      <c r="B830" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="C830" t="n">
+        <v>46.4</v>
+      </c>
+      <c r="D830" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="E830" t="n">
+        <v>46.4</v>
+      </c>
+      <c r="F830" t="n">
+        <v>1140.3414</v>
+      </c>
+      <c r="G830" t="n">
+        <v>-3541877.920448932</v>
+      </c>
+      <c r="H830" t="n">
+        <v>0</v>
+      </c>
+      <c r="I830" t="inlineStr"/>
+      <c r="J830" t="inlineStr"/>
+      <c r="K830" t="inlineStr"/>
+      <c r="L830" t="n">
+        <v>1</v>
+      </c>
+      <c r="M830" t="inlineStr"/>
+    </row>
+    <row r="831">
+      <c r="A831" s="1" t="n">
+        <v>829</v>
+      </c>
+      <c r="B831" t="n">
+        <v>46.4</v>
+      </c>
+      <c r="C831" t="n">
+        <v>46.4</v>
+      </c>
+      <c r="D831" t="n">
+        <v>46.4</v>
+      </c>
+      <c r="E831" t="n">
+        <v>46.4</v>
+      </c>
+      <c r="F831" t="n">
+        <v>646.6153</v>
+      </c>
+      <c r="G831" t="n">
+        <v>-3541877.920448932</v>
+      </c>
+      <c r="H831" t="n">
+        <v>0</v>
+      </c>
+      <c r="I831" t="inlineStr"/>
+      <c r="J831" t="inlineStr"/>
+      <c r="K831" t="inlineStr"/>
+      <c r="L831" t="n">
+        <v>1</v>
+      </c>
+      <c r="M831" t="inlineStr"/>
+    </row>
+    <row r="832">
+      <c r="A832" s="1" t="n">
+        <v>830</v>
+      </c>
+      <c r="B832" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="C832" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="D832" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="E832" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="F832" t="n">
+        <v>73404.37747344001</v>
+      </c>
+      <c r="G832" t="n">
+        <v>-3615282.297922372</v>
+      </c>
+      <c r="H832" t="n">
+        <v>0</v>
+      </c>
+      <c r="I832" t="inlineStr"/>
+      <c r="J832" t="inlineStr"/>
+      <c r="K832" t="inlineStr"/>
+      <c r="L832" t="n">
+        <v>1</v>
+      </c>
+      <c r="M832" t="inlineStr"/>
+    </row>
+    <row r="833">
+      <c r="A833" s="1" t="n">
+        <v>831</v>
+      </c>
+      <c r="B833" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="C833" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="D833" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="E833" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="F833" t="n">
+        <v>26422.4963</v>
+      </c>
+      <c r="G833" t="n">
+        <v>-3588859.801622372</v>
+      </c>
+      <c r="H833" t="n">
+        <v>0</v>
+      </c>
+      <c r="I833" t="inlineStr"/>
+      <c r="J833" t="inlineStr"/>
+      <c r="K833" t="inlineStr"/>
+      <c r="L833" t="n">
+        <v>1</v>
+      </c>
+      <c r="M833" t="inlineStr"/>
+    </row>
+    <row r="834">
+      <c r="A834" s="1" t="n">
+        <v>832</v>
+      </c>
+      <c r="B834" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="C834" t="n">
         <v>46.2</v>
       </c>
-      <c r="J829" t="inlineStr"/>
-      <c r="K829" t="inlineStr">
+      <c r="D834" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="E834" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="F834" t="n">
+        <v>12723.7819</v>
+      </c>
+      <c r="G834" t="n">
+        <v>-3601583.583522372</v>
+      </c>
+      <c r="H834" t="n">
+        <v>0</v>
+      </c>
+      <c r="I834" t="inlineStr"/>
+      <c r="J834" t="inlineStr"/>
+      <c r="K834" t="inlineStr"/>
+      <c r="L834" t="n">
+        <v>1</v>
+      </c>
+      <c r="M834" t="inlineStr"/>
+    </row>
+    <row r="835">
+      <c r="A835" s="1" t="n">
+        <v>833</v>
+      </c>
+      <c r="B835" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="C835" t="n">
+        <v>46.1</v>
+      </c>
+      <c r="D835" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="E835" t="n">
+        <v>46.1</v>
+      </c>
+      <c r="F835" t="n">
+        <v>116562.2511</v>
+      </c>
+      <c r="G835" t="n">
+        <v>-3718145.834622372</v>
+      </c>
+      <c r="H835" t="n">
+        <v>0</v>
+      </c>
+      <c r="I835" t="inlineStr"/>
+      <c r="J835" t="inlineStr"/>
+      <c r="K835" t="inlineStr"/>
+      <c r="L835" t="n">
+        <v>1</v>
+      </c>
+      <c r="M835" t="inlineStr"/>
+    </row>
+    <row r="836">
+      <c r="A836" s="1" t="n">
+        <v>834</v>
+      </c>
+      <c r="B836" t="n">
+        <v>46.4</v>
+      </c>
+      <c r="C836" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="D836" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="E836" t="n">
+        <v>46.4</v>
+      </c>
+      <c r="F836" t="n">
+        <v>5386.1561</v>
+      </c>
+      <c r="G836" t="n">
+        <v>-3712759.678522372</v>
+      </c>
+      <c r="H836" t="n">
+        <v>0</v>
+      </c>
+      <c r="I836" t="inlineStr"/>
+      <c r="J836" t="inlineStr"/>
+      <c r="K836" t="inlineStr"/>
+      <c r="L836" t="n">
+        <v>1</v>
+      </c>
+      <c r="M836" t="inlineStr"/>
+    </row>
+    <row r="837">
+      <c r="A837" s="1" t="n">
+        <v>835</v>
+      </c>
+      <c r="B837" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="C837" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="D837" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="E837" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="F837" t="n">
+        <v>1852.6449</v>
+      </c>
+      <c r="G837" t="n">
+        <v>-3710907.033622372</v>
+      </c>
+      <c r="H837" t="n">
+        <v>0</v>
+      </c>
+      <c r="I837" t="inlineStr"/>
+      <c r="J837" t="inlineStr"/>
+      <c r="K837" t="inlineStr"/>
+      <c r="L837" t="n">
+        <v>1</v>
+      </c>
+      <c r="M837" t="inlineStr"/>
+    </row>
+    <row r="838">
+      <c r="A838" s="1" t="n">
+        <v>836</v>
+      </c>
+      <c r="B838" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="C838" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="D838" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="E838" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="F838" t="n">
+        <v>10191.4589</v>
+      </c>
+      <c r="G838" t="n">
+        <v>-3700715.574722372</v>
+      </c>
+      <c r="H838" t="n">
+        <v>0</v>
+      </c>
+      <c r="I838" t="inlineStr"/>
+      <c r="J838" t="inlineStr"/>
+      <c r="K838" t="inlineStr"/>
+      <c r="L838" t="n">
+        <v>1</v>
+      </c>
+      <c r="M838" t="inlineStr"/>
+    </row>
+    <row r="839">
+      <c r="A839" s="1" t="n">
+        <v>837</v>
+      </c>
+      <c r="B839" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="C839" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="D839" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="E839" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="F839" t="n">
+        <v>5624.1411</v>
+      </c>
+      <c r="G839" t="n">
+        <v>-3700715.574722372</v>
+      </c>
+      <c r="H839" t="n">
+        <v>0</v>
+      </c>
+      <c r="I839" t="inlineStr"/>
+      <c r="J839" t="inlineStr"/>
+      <c r="K839" t="inlineStr"/>
+      <c r="L839" t="n">
+        <v>1</v>
+      </c>
+      <c r="M839" t="inlineStr"/>
+    </row>
+    <row r="840">
+      <c r="A840" s="1" t="n">
+        <v>838</v>
+      </c>
+      <c r="B840" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="C840" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="D840" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="E840" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="F840" t="n">
+        <v>1485.6009</v>
+      </c>
+      <c r="G840" t="n">
+        <v>-3700715.574722372</v>
+      </c>
+      <c r="H840" t="n">
+        <v>0</v>
+      </c>
+      <c r="I840" t="inlineStr"/>
+      <c r="J840" t="inlineStr"/>
+      <c r="K840" t="inlineStr"/>
+      <c r="L840" t="n">
+        <v>1</v>
+      </c>
+      <c r="M840" t="inlineStr"/>
+    </row>
+    <row r="841">
+      <c r="A841" s="1" t="n">
+        <v>839</v>
+      </c>
+      <c r="B841" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="C841" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="D841" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="E841" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="F841" t="n">
+        <v>630.5419000000001</v>
+      </c>
+      <c r="G841" t="n">
+        <v>-3700715.574722372</v>
+      </c>
+      <c r="H841" t="n">
+        <v>0</v>
+      </c>
+      <c r="I841" t="inlineStr"/>
+      <c r="J841" t="inlineStr"/>
+      <c r="K841" t="inlineStr"/>
+      <c r="L841" t="n">
+        <v>1</v>
+      </c>
+      <c r="M841" t="inlineStr"/>
+    </row>
+    <row r="842">
+      <c r="A842" s="1" t="n">
+        <v>840</v>
+      </c>
+      <c r="B842" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="C842" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="D842" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="E842" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="F842" t="n">
+        <v>175.1314</v>
+      </c>
+      <c r="G842" t="n">
+        <v>-3700890.706122372</v>
+      </c>
+      <c r="H842" t="n">
+        <v>0</v>
+      </c>
+      <c r="I842" t="inlineStr"/>
+      <c r="J842" t="inlineStr"/>
+      <c r="K842" t="inlineStr"/>
+      <c r="L842" t="n">
+        <v>1</v>
+      </c>
+      <c r="M842" t="inlineStr"/>
+    </row>
+    <row r="843">
+      <c r="A843" s="1" t="n">
+        <v>841</v>
+      </c>
+      <c r="B843" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="C843" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="D843" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="E843" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="F843" t="n">
+        <v>9824.8686</v>
+      </c>
+      <c r="G843" t="n">
+        <v>-3700890.706122372</v>
+      </c>
+      <c r="H843" t="n">
+        <v>0</v>
+      </c>
+      <c r="I843" t="inlineStr"/>
+      <c r="J843" t="inlineStr"/>
+      <c r="K843" t="inlineStr"/>
+      <c r="L843" t="n">
+        <v>1</v>
+      </c>
+      <c r="M843" t="inlineStr"/>
+    </row>
+    <row r="844">
+      <c r="A844" s="1" t="n">
+        <v>842</v>
+      </c>
+      <c r="B844" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="C844" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="D844" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="E844" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="F844" t="n">
+        <v>10787.1079</v>
+      </c>
+      <c r="G844" t="n">
+        <v>-3690103.598222372</v>
+      </c>
+      <c r="H844" t="n">
+        <v>0</v>
+      </c>
+      <c r="I844" t="inlineStr"/>
+      <c r="J844" t="inlineStr"/>
+      <c r="K844" t="inlineStr"/>
+      <c r="L844" t="n">
+        <v>1</v>
+      </c>
+      <c r="M844" t="inlineStr"/>
+    </row>
+    <row r="845">
+      <c r="A845" s="1" t="n">
+        <v>843</v>
+      </c>
+      <c r="B845" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="C845" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="D845" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="E845" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="F845" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G845" t="n">
+        <v>-3690103.598222372</v>
+      </c>
+      <c r="H845" t="n">
+        <v>0</v>
+      </c>
+      <c r="I845" t="inlineStr"/>
+      <c r="J845" t="inlineStr"/>
+      <c r="K845" t="inlineStr"/>
+      <c r="L845" t="n">
+        <v>1</v>
+      </c>
+      <c r="M845" t="inlineStr"/>
+    </row>
+    <row r="846">
+      <c r="A846" s="1" t="n">
+        <v>844</v>
+      </c>
+      <c r="B846" t="n">
+        <v>47</v>
+      </c>
+      <c r="C846" t="n">
+        <v>47</v>
+      </c>
+      <c r="D846" t="n">
+        <v>47</v>
+      </c>
+      <c r="E846" t="n">
+        <v>47</v>
+      </c>
+      <c r="F846" t="n">
+        <v>122.59574468</v>
+      </c>
+      <c r="G846" t="n">
+        <v>-3689981.002477692</v>
+      </c>
+      <c r="H846" t="n">
+        <v>0</v>
+      </c>
+      <c r="I846" t="inlineStr"/>
+      <c r="J846" t="inlineStr"/>
+      <c r="K846" t="inlineStr"/>
+      <c r="L846" t="n">
+        <v>1</v>
+      </c>
+      <c r="M846" t="inlineStr"/>
+    </row>
+    <row r="847">
+      <c r="A847" s="1" t="n">
+        <v>845</v>
+      </c>
+      <c r="B847" t="n">
+        <v>46.8</v>
+      </c>
+      <c r="C847" t="n">
+        <v>46.8</v>
+      </c>
+      <c r="D847" t="n">
+        <v>46.8</v>
+      </c>
+      <c r="E847" t="n">
+        <v>46.8</v>
+      </c>
+      <c r="F847" t="n">
+        <v>8283.6307</v>
+      </c>
+      <c r="G847" t="n">
+        <v>-3698264.633177692</v>
+      </c>
+      <c r="H847" t="n">
+        <v>0</v>
+      </c>
+      <c r="I847" t="inlineStr"/>
+      <c r="J847" t="inlineStr"/>
+      <c r="K847" t="inlineStr"/>
+      <c r="L847" t="n">
+        <v>1</v>
+      </c>
+      <c r="M847" t="inlineStr"/>
+    </row>
+    <row r="848">
+      <c r="A848" s="1" t="n">
+        <v>846</v>
+      </c>
+      <c r="B848" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="C848" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="D848" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="E848" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="F848" t="n">
+        <v>29036.0828</v>
+      </c>
+      <c r="G848" t="n">
+        <v>-3727300.715977692</v>
+      </c>
+      <c r="H848" t="n">
+        <v>0</v>
+      </c>
+      <c r="I848" t="inlineStr"/>
+      <c r="J848" t="inlineStr"/>
+      <c r="K848" t="inlineStr"/>
+      <c r="L848" t="n">
+        <v>1</v>
+      </c>
+      <c r="M848" t="inlineStr"/>
+    </row>
+    <row r="849">
+      <c r="A849" s="1" t="n">
+        <v>847</v>
+      </c>
+      <c r="B849" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="C849" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="D849" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="E849" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="F849" t="n">
+        <v>75256.209</v>
+      </c>
+      <c r="G849" t="n">
+        <v>-3652044.506977692</v>
+      </c>
+      <c r="H849" t="n">
+        <v>0</v>
+      </c>
+      <c r="I849" t="inlineStr"/>
+      <c r="J849" t="inlineStr"/>
+      <c r="K849" t="inlineStr"/>
+      <c r="L849" t="n">
+        <v>1</v>
+      </c>
+      <c r="M849" t="inlineStr"/>
+    </row>
+    <row r="850">
+      <c r="A850" s="1" t="n">
+        <v>848</v>
+      </c>
+      <c r="B850" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="C850" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="D850" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="E850" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="F850" t="n">
+        <v>2093.728</v>
+      </c>
+      <c r="G850" t="n">
+        <v>-3654138.234977692</v>
+      </c>
+      <c r="H850" t="n">
+        <v>0</v>
+      </c>
+      <c r="I850" t="inlineStr"/>
+      <c r="J850" t="inlineStr"/>
+      <c r="K850" t="inlineStr"/>
+      <c r="L850" t="n">
+        <v>1</v>
+      </c>
+      <c r="M850" t="inlineStr"/>
+    </row>
+    <row r="851">
+      <c r="A851" s="1" t="n">
+        <v>849</v>
+      </c>
+      <c r="B851" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="C851" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="D851" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="E851" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="F851" t="n">
+        <v>15766.5921</v>
+      </c>
+      <c r="G851" t="n">
+        <v>-3669904.827077692</v>
+      </c>
+      <c r="H851" t="n">
+        <v>0</v>
+      </c>
+      <c r="I851" t="inlineStr"/>
+      <c r="J851" t="inlineStr"/>
+      <c r="K851" t="inlineStr"/>
+      <c r="L851" t="n">
+        <v>1</v>
+      </c>
+      <c r="M851" t="inlineStr"/>
+    </row>
+    <row r="852">
+      <c r="A852" s="1" t="n">
+        <v>850</v>
+      </c>
+      <c r="B852" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="C852" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="D852" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="E852" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="F852" t="n">
+        <v>1822.6898</v>
+      </c>
+      <c r="G852" t="n">
+        <v>-3671727.516877692</v>
+      </c>
+      <c r="H852" t="n">
+        <v>0</v>
+      </c>
+      <c r="I852" t="inlineStr"/>
+      <c r="J852" t="inlineStr"/>
+      <c r="K852" t="inlineStr"/>
+      <c r="L852" t="n">
+        <v>1</v>
+      </c>
+      <c r="M852" t="inlineStr"/>
+    </row>
+    <row r="853">
+      <c r="A853" s="1" t="n">
+        <v>851</v>
+      </c>
+      <c r="B853" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="C853" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="D853" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="E853" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="F853" t="n">
+        <v>4112.2887</v>
+      </c>
+      <c r="G853" t="n">
+        <v>-3667615.228177692</v>
+      </c>
+      <c r="H853" t="n">
+        <v>0</v>
+      </c>
+      <c r="I853" t="inlineStr"/>
+      <c r="J853" t="inlineStr"/>
+      <c r="K853" t="inlineStr"/>
+      <c r="L853" t="n">
+        <v>1</v>
+      </c>
+      <c r="M853" t="inlineStr"/>
+    </row>
+    <row r="854">
+      <c r="A854" s="1" t="n">
+        <v>852</v>
+      </c>
+      <c r="B854" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="C854" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="D854" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="E854" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="F854" t="n">
+        <v>695.9017</v>
+      </c>
+      <c r="G854" t="n">
+        <v>-3668311.129877692</v>
+      </c>
+      <c r="H854" t="n">
+        <v>1</v>
+      </c>
+      <c r="I854" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="J854" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="K854" t="inlineStr"/>
+      <c r="L854" t="n">
+        <v>1</v>
+      </c>
+      <c r="M854" t="inlineStr"/>
+    </row>
+    <row r="855">
+      <c r="A855" s="1" t="n">
+        <v>853</v>
+      </c>
+      <c r="B855" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="C855" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="D855" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="E855" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="F855" t="n">
+        <v>3045.8017</v>
+      </c>
+      <c r="G855" t="n">
+        <v>-3668311.129877692</v>
+      </c>
+      <c r="H855" t="n">
+        <v>1</v>
+      </c>
+      <c r="I855" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="J855" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="K855" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L855" t="n">
+        <v>1</v>
+      </c>
+      <c r="M855" t="inlineStr"/>
+    </row>
+    <row r="856">
+      <c r="A856" s="1" t="n">
+        <v>854</v>
+      </c>
+      <c r="B856" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="C856" t="n">
+        <v>46.4</v>
+      </c>
+      <c r="D856" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="E856" t="n">
+        <v>46.4</v>
+      </c>
+      <c r="F856" t="n">
+        <v>9105.638999999999</v>
+      </c>
+      <c r="G856" t="n">
+        <v>-3677416.768877692</v>
+      </c>
+      <c r="H856" t="n">
+        <v>1</v>
+      </c>
+      <c r="I856" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="J856" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="K856" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L829" t="n">
-        <v>1</v>
-      </c>
-      <c r="M829" t="inlineStr"/>
-    </row>
-    <row r="830">
-      <c r="A830" s="1" t="n">
-        <v>828</v>
-      </c>
-      <c r="B830" t="n">
-        <v>46.5</v>
-      </c>
-      <c r="C830" t="n">
-        <v>46.4</v>
-      </c>
-      <c r="D830" t="n">
-        <v>46.5</v>
-      </c>
-      <c r="E830" t="n">
-        <v>46.4</v>
-      </c>
-      <c r="F830" t="n">
-        <v>1140.3414</v>
-      </c>
-      <c r="G830" t="n">
-        <v>-3541877.920448932</v>
-      </c>
-      <c r="H830" t="n">
-        <v>1</v>
-      </c>
-      <c r="I830" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="J830" t="inlineStr"/>
-      <c r="K830" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L830" t="n">
-        <v>1</v>
-      </c>
-      <c r="M830" t="inlineStr"/>
-    </row>
-    <row r="831">
-      <c r="A831" s="1" t="n">
-        <v>829</v>
-      </c>
-      <c r="B831" t="n">
-        <v>46.4</v>
-      </c>
-      <c r="C831" t="n">
-        <v>46.4</v>
-      </c>
-      <c r="D831" t="n">
-        <v>46.4</v>
-      </c>
-      <c r="E831" t="n">
-        <v>46.4</v>
-      </c>
-      <c r="F831" t="n">
-        <v>646.6153</v>
-      </c>
-      <c r="G831" t="n">
-        <v>-3541877.920448932</v>
-      </c>
-      <c r="H831" t="n">
-        <v>1</v>
-      </c>
-      <c r="I831" t="n">
-        <v>46.4</v>
-      </c>
-      <c r="J831" t="inlineStr"/>
-      <c r="K831" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L831" t="n">
-        <v>1</v>
-      </c>
-      <c r="M831" t="inlineStr"/>
-    </row>
-    <row r="832">
-      <c r="A832" s="1" t="n">
-        <v>830</v>
-      </c>
-      <c r="B832" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="C832" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="D832" t="n">
-        <v>46.7</v>
-      </c>
-      <c r="E832" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="F832" t="n">
-        <v>73404.37747344001</v>
-      </c>
-      <c r="G832" t="n">
-        <v>-3615282.297922372</v>
-      </c>
-      <c r="H832" t="n">
-        <v>0</v>
-      </c>
-      <c r="I832" t="inlineStr"/>
-      <c r="J832" t="inlineStr"/>
-      <c r="K832" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L832" t="n">
-        <v>1</v>
-      </c>
-      <c r="M832" t="inlineStr"/>
-    </row>
-    <row r="833">
-      <c r="A833" s="1" t="n">
-        <v>831</v>
-      </c>
-      <c r="B833" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="C833" t="n">
-        <v>46.5</v>
-      </c>
-      <c r="D833" t="n">
-        <v>46.5</v>
-      </c>
-      <c r="E833" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="F833" t="n">
-        <v>26422.4963</v>
-      </c>
-      <c r="G833" t="n">
-        <v>-3588859.801622372</v>
-      </c>
-      <c r="H833" t="n">
-        <v>0</v>
-      </c>
-      <c r="I833" t="inlineStr"/>
-      <c r="J833" t="inlineStr"/>
-      <c r="K833" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L833" t="n">
-        <v>1</v>
-      </c>
-      <c r="M833" t="inlineStr"/>
-    </row>
-    <row r="834">
-      <c r="A834" s="1" t="n">
-        <v>832</v>
-      </c>
-      <c r="B834" t="n">
-        <v>46.6</v>
-      </c>
-      <c r="C834" t="n">
-        <v>46.2</v>
-      </c>
-      <c r="D834" t="n">
-        <v>46.6</v>
-      </c>
-      <c r="E834" t="n">
-        <v>46.2</v>
-      </c>
-      <c r="F834" t="n">
-        <v>12723.7819</v>
-      </c>
-      <c r="G834" t="n">
-        <v>-3601583.583522372</v>
-      </c>
-      <c r="H834" t="n">
-        <v>0</v>
-      </c>
-      <c r="I834" t="inlineStr"/>
-      <c r="J834" t="inlineStr"/>
-      <c r="K834" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L834" t="n">
-        <v>1</v>
-      </c>
-      <c r="M834" t="inlineStr"/>
-    </row>
-    <row r="835">
-      <c r="A835" s="1" t="n">
-        <v>833</v>
-      </c>
-      <c r="B835" t="n">
-        <v>46.2</v>
-      </c>
-      <c r="C835" t="n">
-        <v>46.1</v>
-      </c>
-      <c r="D835" t="n">
-        <v>46.5</v>
-      </c>
-      <c r="E835" t="n">
-        <v>46.1</v>
-      </c>
-      <c r="F835" t="n">
-        <v>116562.2511</v>
-      </c>
-      <c r="G835" t="n">
-        <v>-3718145.834622372</v>
-      </c>
-      <c r="H835" t="n">
-        <v>0</v>
-      </c>
-      <c r="I835" t="inlineStr"/>
-      <c r="J835" t="inlineStr"/>
-      <c r="K835" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L835" t="n">
-        <v>1</v>
-      </c>
-      <c r="M835" t="inlineStr"/>
-    </row>
-    <row r="836">
-      <c r="A836" s="1" t="n">
-        <v>834</v>
-      </c>
-      <c r="B836" t="n">
-        <v>46.4</v>
-      </c>
-      <c r="C836" t="n">
-        <v>46.5</v>
-      </c>
-      <c r="D836" t="n">
-        <v>46.5</v>
-      </c>
-      <c r="E836" t="n">
-        <v>46.4</v>
-      </c>
-      <c r="F836" t="n">
-        <v>5386.1561</v>
-      </c>
-      <c r="G836" t="n">
-        <v>-3712759.678522372</v>
-      </c>
-      <c r="H836" t="n">
-        <v>0</v>
-      </c>
-      <c r="I836" t="inlineStr"/>
-      <c r="J836" t="inlineStr"/>
-      <c r="K836" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L836" t="n">
-        <v>1</v>
-      </c>
-      <c r="M836" t="inlineStr"/>
-    </row>
-    <row r="837">
-      <c r="A837" s="1" t="n">
-        <v>835</v>
-      </c>
-      <c r="B837" t="n">
-        <v>46.5</v>
-      </c>
-      <c r="C837" t="n">
-        <v>46.6</v>
-      </c>
-      <c r="D837" t="n">
-        <v>46.6</v>
-      </c>
-      <c r="E837" t="n">
-        <v>46.5</v>
-      </c>
-      <c r="F837" t="n">
-        <v>1852.6449</v>
-      </c>
-      <c r="G837" t="n">
-        <v>-3710907.033622372</v>
-      </c>
-      <c r="H837" t="n">
-        <v>1</v>
-      </c>
-      <c r="I837" t="n">
-        <v>46.5</v>
-      </c>
-      <c r="J837" t="inlineStr"/>
-      <c r="K837" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L837" t="n">
-        <v>1</v>
-      </c>
-      <c r="M837" t="inlineStr"/>
-    </row>
-    <row r="838">
-      <c r="A838" s="1" t="n">
-        <v>836</v>
-      </c>
-      <c r="B838" t="n">
-        <v>46.9</v>
-      </c>
-      <c r="C838" t="n">
-        <v>46.7</v>
-      </c>
-      <c r="D838" t="n">
-        <v>46.9</v>
-      </c>
-      <c r="E838" t="n">
-        <v>46.7</v>
-      </c>
-      <c r="F838" t="n">
-        <v>10191.4589</v>
-      </c>
-      <c r="G838" t="n">
-        <v>-3700715.574722372</v>
-      </c>
-      <c r="H838" t="n">
-        <v>0</v>
-      </c>
-      <c r="I838" t="inlineStr"/>
-      <c r="J838" t="inlineStr"/>
-      <c r="K838" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L838" t="n">
-        <v>1</v>
-      </c>
-      <c r="M838" t="inlineStr"/>
-    </row>
-    <row r="839">
-      <c r="A839" s="1" t="n">
-        <v>837</v>
-      </c>
-      <c r="B839" t="n">
-        <v>46.5</v>
-      </c>
-      <c r="C839" t="n">
-        <v>46.7</v>
-      </c>
-      <c r="D839" t="n">
-        <v>46.7</v>
-      </c>
-      <c r="E839" t="n">
-        <v>46.5</v>
-      </c>
-      <c r="F839" t="n">
-        <v>5624.1411</v>
-      </c>
-      <c r="G839" t="n">
-        <v>-3700715.574722372</v>
-      </c>
-      <c r="H839" t="n">
-        <v>0</v>
-      </c>
-      <c r="I839" t="inlineStr"/>
-      <c r="J839" t="inlineStr"/>
-      <c r="K839" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L839" t="n">
-        <v>1</v>
-      </c>
-      <c r="M839" t="inlineStr"/>
-    </row>
-    <row r="840">
-      <c r="A840" s="1" t="n">
-        <v>838</v>
-      </c>
-      <c r="B840" t="n">
-        <v>46.7</v>
-      </c>
-      <c r="C840" t="n">
-        <v>46.7</v>
-      </c>
-      <c r="D840" t="n">
-        <v>46.7</v>
-      </c>
-      <c r="E840" t="n">
-        <v>46.7</v>
-      </c>
-      <c r="F840" t="n">
-        <v>1485.6009</v>
-      </c>
-      <c r="G840" t="n">
-        <v>-3700715.574722372</v>
-      </c>
-      <c r="H840" t="n">
-        <v>0</v>
-      </c>
-      <c r="I840" t="inlineStr"/>
-      <c r="J840" t="inlineStr"/>
-      <c r="K840" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L840" t="n">
-        <v>1</v>
-      </c>
-      <c r="M840" t="inlineStr"/>
-    </row>
-    <row r="841">
-      <c r="A841" s="1" t="n">
-        <v>839</v>
-      </c>
-      <c r="B841" t="n">
-        <v>46.7</v>
-      </c>
-      <c r="C841" t="n">
-        <v>46.7</v>
-      </c>
-      <c r="D841" t="n">
-        <v>46.7</v>
-      </c>
-      <c r="E841" t="n">
-        <v>46.7</v>
-      </c>
-      <c r="F841" t="n">
-        <v>630.5419000000001</v>
-      </c>
-      <c r="G841" t="n">
-        <v>-3700715.574722372</v>
-      </c>
-      <c r="H841" t="n">
-        <v>0</v>
-      </c>
-      <c r="I841" t="inlineStr"/>
-      <c r="J841" t="inlineStr"/>
-      <c r="K841" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L841" t="n">
-        <v>1</v>
-      </c>
-      <c r="M841" t="inlineStr"/>
-    </row>
-    <row r="842">
-      <c r="A842" s="1" t="n">
-        <v>840</v>
-      </c>
-      <c r="B842" t="n">
-        <v>46.6</v>
-      </c>
-      <c r="C842" t="n">
-        <v>46.6</v>
-      </c>
-      <c r="D842" t="n">
-        <v>46.6</v>
-      </c>
-      <c r="E842" t="n">
-        <v>46.6</v>
-      </c>
-      <c r="F842" t="n">
-        <v>175.1314</v>
-      </c>
-      <c r="G842" t="n">
-        <v>-3700890.706122372</v>
-      </c>
-      <c r="H842" t="n">
-        <v>0</v>
-      </c>
-      <c r="I842" t="inlineStr"/>
-      <c r="J842" t="inlineStr"/>
-      <c r="K842" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L842" t="n">
-        <v>1</v>
-      </c>
-      <c r="M842" t="inlineStr"/>
-    </row>
-    <row r="843">
-      <c r="A843" s="1" t="n">
-        <v>841</v>
-      </c>
-      <c r="B843" t="n">
-        <v>46.6</v>
-      </c>
-      <c r="C843" t="n">
-        <v>46.6</v>
-      </c>
-      <c r="D843" t="n">
-        <v>46.6</v>
-      </c>
-      <c r="E843" t="n">
-        <v>46.6</v>
-      </c>
-      <c r="F843" t="n">
-        <v>9824.8686</v>
-      </c>
-      <c r="G843" t="n">
-        <v>-3700890.706122372</v>
-      </c>
-      <c r="H843" t="n">
-        <v>0</v>
-      </c>
-      <c r="I843" t="inlineStr"/>
-      <c r="J843" t="inlineStr"/>
-      <c r="K843" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L843" t="n">
-        <v>1</v>
-      </c>
-      <c r="M843" t="inlineStr"/>
-    </row>
-    <row r="844">
-      <c r="A844" s="1" t="n">
-        <v>842</v>
-      </c>
-      <c r="B844" t="n">
-        <v>46.6</v>
-      </c>
-      <c r="C844" t="n">
-        <v>46.7</v>
-      </c>
-      <c r="D844" t="n">
-        <v>46.7</v>
-      </c>
-      <c r="E844" t="n">
-        <v>46.6</v>
-      </c>
-      <c r="F844" t="n">
-        <v>10787.1079</v>
-      </c>
-      <c r="G844" t="n">
-        <v>-3690103.598222372</v>
-      </c>
-      <c r="H844" t="n">
-        <v>0</v>
-      </c>
-      <c r="I844" t="inlineStr"/>
-      <c r="J844" t="inlineStr"/>
-      <c r="K844" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L844" t="n">
-        <v>1</v>
-      </c>
-      <c r="M844" t="inlineStr"/>
-    </row>
-    <row r="845">
-      <c r="A845" s="1" t="n">
-        <v>843</v>
-      </c>
-      <c r="B845" t="n">
-        <v>46.7</v>
-      </c>
-      <c r="C845" t="n">
-        <v>46.7</v>
-      </c>
-      <c r="D845" t="n">
-        <v>46.7</v>
-      </c>
-      <c r="E845" t="n">
-        <v>46.7</v>
-      </c>
-      <c r="F845" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G845" t="n">
-        <v>-3690103.598222372</v>
-      </c>
-      <c r="H845" t="n">
-        <v>0</v>
-      </c>
-      <c r="I845" t="inlineStr"/>
-      <c r="J845" t="inlineStr"/>
-      <c r="K845" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L845" t="n">
-        <v>1</v>
-      </c>
-      <c r="M845" t="inlineStr"/>
-    </row>
-    <row r="846">
-      <c r="A846" s="1" t="n">
-        <v>844</v>
-      </c>
-      <c r="B846" t="n">
-        <v>47</v>
-      </c>
-      <c r="C846" t="n">
-        <v>47</v>
-      </c>
-      <c r="D846" t="n">
-        <v>47</v>
-      </c>
-      <c r="E846" t="n">
-        <v>47</v>
-      </c>
-      <c r="F846" t="n">
-        <v>122.59574468</v>
-      </c>
-      <c r="G846" t="n">
-        <v>-3689981.002477692</v>
-      </c>
-      <c r="H846" t="n">
-        <v>0</v>
-      </c>
-      <c r="I846" t="inlineStr"/>
-      <c r="J846" t="inlineStr"/>
-      <c r="K846" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L846" t="n">
-        <v>1</v>
-      </c>
-      <c r="M846" t="inlineStr"/>
-    </row>
-    <row r="847">
-      <c r="A847" s="1" t="n">
-        <v>845</v>
-      </c>
-      <c r="B847" t="n">
-        <v>46.8</v>
-      </c>
-      <c r="C847" t="n">
-        <v>46.8</v>
-      </c>
-      <c r="D847" t="n">
-        <v>46.8</v>
-      </c>
-      <c r="E847" t="n">
-        <v>46.8</v>
-      </c>
-      <c r="F847" t="n">
-        <v>8283.6307</v>
-      </c>
-      <c r="G847" t="n">
-        <v>-3698264.633177692</v>
-      </c>
-      <c r="H847" t="n">
-        <v>0</v>
-      </c>
-      <c r="I847" t="inlineStr"/>
-      <c r="J847" t="inlineStr"/>
-      <c r="K847" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L847" t="n">
-        <v>1</v>
-      </c>
-      <c r="M847" t="inlineStr"/>
-    </row>
-    <row r="848">
-      <c r="A848" s="1" t="n">
-        <v>846</v>
-      </c>
-      <c r="B848" t="n">
-        <v>46.7</v>
-      </c>
-      <c r="C848" t="n">
-        <v>46.7</v>
-      </c>
-      <c r="D848" t="n">
-        <v>46.7</v>
-      </c>
-      <c r="E848" t="n">
-        <v>46.7</v>
-      </c>
-      <c r="F848" t="n">
-        <v>29036.0828</v>
-      </c>
-      <c r="G848" t="n">
-        <v>-3727300.715977692</v>
-      </c>
-      <c r="H848" t="n">
-        <v>0</v>
-      </c>
-      <c r="I848" t="inlineStr"/>
-      <c r="J848" t="inlineStr"/>
-      <c r="K848" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L848" t="n">
-        <v>1</v>
-      </c>
-      <c r="M848" t="inlineStr"/>
-    </row>
-    <row r="849">
-      <c r="A849" s="1" t="n">
-        <v>847</v>
-      </c>
-      <c r="B849" t="n">
-        <v>46.7</v>
-      </c>
-      <c r="C849" t="n">
-        <v>46.9</v>
-      </c>
-      <c r="D849" t="n">
-        <v>46.9</v>
-      </c>
-      <c r="E849" t="n">
-        <v>46.7</v>
-      </c>
-      <c r="F849" t="n">
-        <v>75256.209</v>
-      </c>
-      <c r="G849" t="n">
-        <v>-3652044.506977692</v>
-      </c>
-      <c r="H849" t="n">
-        <v>0</v>
-      </c>
-      <c r="I849" t="inlineStr"/>
-      <c r="J849" t="inlineStr"/>
-      <c r="K849" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L849" t="n">
-        <v>1</v>
-      </c>
-      <c r="M849" t="inlineStr"/>
-    </row>
-    <row r="850">
-      <c r="A850" s="1" t="n">
-        <v>848</v>
-      </c>
-      <c r="B850" t="n">
-        <v>46.7</v>
-      </c>
-      <c r="C850" t="n">
-        <v>46.7</v>
-      </c>
-      <c r="D850" t="n">
-        <v>46.7</v>
-      </c>
-      <c r="E850" t="n">
-        <v>46.7</v>
-      </c>
-      <c r="F850" t="n">
-        <v>2093.728</v>
-      </c>
-      <c r="G850" t="n">
-        <v>-3654138.234977692</v>
-      </c>
-      <c r="H850" t="n">
-        <v>0</v>
-      </c>
-      <c r="I850" t="inlineStr"/>
-      <c r="J850" t="inlineStr"/>
-      <c r="K850" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L850" t="n">
-        <v>1</v>
-      </c>
-      <c r="M850" t="inlineStr"/>
-    </row>
-    <row r="851">
-      <c r="A851" s="1" t="n">
-        <v>849</v>
-      </c>
-      <c r="B851" t="n">
-        <v>46.7</v>
-      </c>
-      <c r="C851" t="n">
-        <v>46.6</v>
-      </c>
-      <c r="D851" t="n">
-        <v>46.7</v>
-      </c>
-      <c r="E851" t="n">
-        <v>46.6</v>
-      </c>
-      <c r="F851" t="n">
-        <v>15766.5921</v>
-      </c>
-      <c r="G851" t="n">
-        <v>-3669904.827077692</v>
-      </c>
-      <c r="H851" t="n">
-        <v>0</v>
-      </c>
-      <c r="I851" t="inlineStr"/>
-      <c r="J851" t="inlineStr"/>
-      <c r="K851" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L851" t="n">
-        <v>1</v>
-      </c>
-      <c r="M851" t="inlineStr"/>
-    </row>
-    <row r="852">
-      <c r="A852" s="1" t="n">
-        <v>850</v>
-      </c>
-      <c r="B852" t="n">
-        <v>46.6</v>
-      </c>
-      <c r="C852" t="n">
-        <v>46.5</v>
-      </c>
-      <c r="D852" t="n">
-        <v>46.6</v>
-      </c>
-      <c r="E852" t="n">
-        <v>46.5</v>
-      </c>
-      <c r="F852" t="n">
-        <v>1822.6898</v>
-      </c>
-      <c r="G852" t="n">
-        <v>-3671727.516877692</v>
-      </c>
-      <c r="H852" t="n">
-        <v>0</v>
-      </c>
-      <c r="I852" t="inlineStr"/>
-      <c r="J852" t="inlineStr"/>
-      <c r="K852" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L852" t="n">
-        <v>1</v>
-      </c>
-      <c r="M852" t="inlineStr"/>
-    </row>
-    <row r="853">
-      <c r="A853" s="1" t="n">
-        <v>851</v>
-      </c>
-      <c r="B853" t="n">
-        <v>46.5</v>
-      </c>
-      <c r="C853" t="n">
-        <v>46.6</v>
-      </c>
-      <c r="D853" t="n">
-        <v>46.6</v>
-      </c>
-      <c r="E853" t="n">
-        <v>46.5</v>
-      </c>
-      <c r="F853" t="n">
-        <v>4112.2887</v>
-      </c>
-      <c r="G853" t="n">
-        <v>-3667615.228177692</v>
-      </c>
-      <c r="H853" t="n">
-        <v>0</v>
-      </c>
-      <c r="I853" t="inlineStr"/>
-      <c r="J853" t="inlineStr"/>
-      <c r="K853" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L853" t="n">
-        <v>1</v>
-      </c>
-      <c r="M853" t="inlineStr"/>
-    </row>
-    <row r="854">
-      <c r="A854" s="1" t="n">
-        <v>852</v>
-      </c>
-      <c r="B854" t="n">
-        <v>46.5</v>
-      </c>
-      <c r="C854" t="n">
-        <v>46.5</v>
-      </c>
-      <c r="D854" t="n">
-        <v>46.5</v>
-      </c>
-      <c r="E854" t="n">
-        <v>46.5</v>
-      </c>
-      <c r="F854" t="n">
-        <v>695.9017</v>
-      </c>
-      <c r="G854" t="n">
-        <v>-3668311.129877692</v>
-      </c>
-      <c r="H854" t="n">
-        <v>0</v>
-      </c>
-      <c r="I854" t="inlineStr"/>
-      <c r="J854" t="inlineStr"/>
-      <c r="K854" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L854" t="n">
-        <v>1</v>
-      </c>
-      <c r="M854" t="inlineStr"/>
-    </row>
-    <row r="855">
-      <c r="A855" s="1" t="n">
-        <v>853</v>
-      </c>
-      <c r="B855" t="n">
-        <v>46.5</v>
-      </c>
-      <c r="C855" t="n">
-        <v>46.5</v>
-      </c>
-      <c r="D855" t="n">
-        <v>46.5</v>
-      </c>
-      <c r="E855" t="n">
-        <v>46.5</v>
-      </c>
-      <c r="F855" t="n">
-        <v>3045.8017</v>
-      </c>
-      <c r="G855" t="n">
-        <v>-3668311.129877692</v>
-      </c>
-      <c r="H855" t="n">
-        <v>0</v>
-      </c>
-      <c r="I855" t="inlineStr"/>
-      <c r="J855" t="inlineStr"/>
-      <c r="K855" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L855" t="n">
-        <v>1</v>
-      </c>
-      <c r="M855" t="inlineStr"/>
-    </row>
-    <row r="856">
-      <c r="A856" s="1" t="n">
-        <v>854</v>
-      </c>
-      <c r="B856" t="n">
-        <v>46.5</v>
-      </c>
-      <c r="C856" t="n">
-        <v>46.4</v>
-      </c>
-      <c r="D856" t="n">
-        <v>46.5</v>
-      </c>
-      <c r="E856" t="n">
-        <v>46.4</v>
-      </c>
-      <c r="F856" t="n">
-        <v>9105.638999999999</v>
-      </c>
-      <c r="G856" t="n">
-        <v>-3677416.768877692</v>
-      </c>
-      <c r="H856" t="n">
-        <v>0</v>
-      </c>
-      <c r="I856" t="inlineStr"/>
-      <c r="J856" t="inlineStr"/>
-      <c r="K856" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L856" t="n">
         <v>1</v>
       </c>
@@ -28786,10 +28686,14 @@
         <v>-3676212.211277692</v>
       </c>
       <c r="H857" t="n">
-        <v>0</v>
-      </c>
-      <c r="I857" t="inlineStr"/>
-      <c r="J857" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I857" t="n">
+        <v>46.4</v>
+      </c>
+      <c r="J857" t="n">
+        <v>46.6</v>
+      </c>
       <c r="K857" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28823,10 +28727,14 @@
         <v>-3675670.972477692</v>
       </c>
       <c r="H858" t="n">
-        <v>0</v>
-      </c>
-      <c r="I858" t="inlineStr"/>
-      <c r="J858" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I858" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="J858" t="n">
+        <v>46.6</v>
+      </c>
       <c r="K858" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28860,10 +28768,14 @@
         <v>-3675670.972477692</v>
       </c>
       <c r="H859" t="n">
-        <v>0</v>
-      </c>
-      <c r="I859" t="inlineStr"/>
-      <c r="J859" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I859" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="J859" t="n">
+        <v>46.6</v>
+      </c>
       <c r="K859" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28900,7 +28812,9 @@
         <v>0</v>
       </c>
       <c r="I860" t="inlineStr"/>
-      <c r="J860" t="inlineStr"/>
+      <c r="J860" t="n">
+        <v>46.6</v>
+      </c>
       <c r="K860" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28934,10 +28848,14 @@
         <v>-3709091.571577691</v>
       </c>
       <c r="H861" t="n">
-        <v>0</v>
-      </c>
-      <c r="I861" t="inlineStr"/>
-      <c r="J861" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I861" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="J861" t="n">
+        <v>46.6</v>
+      </c>
       <c r="K861" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28971,10 +28889,14 @@
         <v>-3709091.571577691</v>
       </c>
       <c r="H862" t="n">
-        <v>0</v>
-      </c>
-      <c r="I862" t="inlineStr"/>
-      <c r="J862" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I862" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="J862" t="n">
+        <v>46.6</v>
+      </c>
       <c r="K862" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29008,10 +28930,14 @@
         <v>-3690760.182215991</v>
       </c>
       <c r="H863" t="n">
-        <v>0</v>
-      </c>
-      <c r="I863" t="inlineStr"/>
-      <c r="J863" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I863" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="J863" t="n">
+        <v>46.6</v>
+      </c>
       <c r="K863" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29045,10 +28971,14 @@
         <v>-3691300.217615991</v>
       </c>
       <c r="H864" t="n">
-        <v>0</v>
-      </c>
-      <c r="I864" t="inlineStr"/>
-      <c r="J864" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I864" t="n">
+        <v>47</v>
+      </c>
+      <c r="J864" t="n">
+        <v>46.6</v>
+      </c>
       <c r="K864" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29082,10 +29012,14 @@
         <v>-3689443.706415991</v>
       </c>
       <c r="H865" t="n">
-        <v>0</v>
-      </c>
-      <c r="I865" t="inlineStr"/>
-      <c r="J865" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I865" t="n">
+        <v>46.8</v>
+      </c>
+      <c r="J865" t="n">
+        <v>46.6</v>
+      </c>
       <c r="K865" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29119,10 +29053,14 @@
         <v>-3687666.721515991</v>
       </c>
       <c r="H866" t="n">
-        <v>0</v>
-      </c>
-      <c r="I866" t="inlineStr"/>
-      <c r="J866" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I866" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="J866" t="n">
+        <v>46.6</v>
+      </c>
       <c r="K866" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29156,10 +29094,14 @@
         <v>-3687666.721515991</v>
       </c>
       <c r="H867" t="n">
-        <v>0</v>
-      </c>
-      <c r="I867" t="inlineStr"/>
-      <c r="J867" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I867" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="J867" t="n">
+        <v>46.6</v>
+      </c>
       <c r="K867" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29193,10 +29135,14 @@
         <v>-3688751.450315991</v>
       </c>
       <c r="H868" t="n">
-        <v>0</v>
-      </c>
-      <c r="I868" t="inlineStr"/>
-      <c r="J868" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I868" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="J868" t="n">
+        <v>46.6</v>
+      </c>
       <c r="K868" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29230,10 +29176,14 @@
         <v>-3688751.450315991</v>
       </c>
       <c r="H869" t="n">
-        <v>0</v>
-      </c>
-      <c r="I869" t="inlineStr"/>
-      <c r="J869" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I869" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="J869" t="n">
+        <v>46.6</v>
+      </c>
       <c r="K869" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29267,10 +29217,14 @@
         <v>-3688751.450315991</v>
       </c>
       <c r="H870" t="n">
-        <v>0</v>
-      </c>
-      <c r="I870" t="inlineStr"/>
-      <c r="J870" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I870" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="J870" t="n">
+        <v>46.6</v>
+      </c>
       <c r="K870" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29304,10 +29258,14 @@
         <v>-3688751.450315991</v>
       </c>
       <c r="H871" t="n">
-        <v>0</v>
-      </c>
-      <c r="I871" t="inlineStr"/>
-      <c r="J871" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I871" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="J871" t="n">
+        <v>46.6</v>
+      </c>
       <c r="K871" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29341,10 +29299,14 @@
         <v>-3688751.450315991</v>
       </c>
       <c r="H872" t="n">
-        <v>0</v>
-      </c>
-      <c r="I872" t="inlineStr"/>
-      <c r="J872" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I872" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="J872" t="n">
+        <v>46.6</v>
+      </c>
       <c r="K872" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29378,10 +29340,14 @@
         <v>-3687751.450315991</v>
       </c>
       <c r="H873" t="n">
-        <v>0</v>
-      </c>
-      <c r="I873" t="inlineStr"/>
-      <c r="J873" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I873" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="J873" t="n">
+        <v>46.6</v>
+      </c>
       <c r="K873" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29415,10 +29381,14 @@
         <v>-3688432.862415991</v>
       </c>
       <c r="H874" t="n">
-        <v>0</v>
-      </c>
-      <c r="I874" t="inlineStr"/>
-      <c r="J874" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I874" t="n">
+        <v>47</v>
+      </c>
+      <c r="J874" t="n">
+        <v>46.6</v>
+      </c>
       <c r="K874" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29452,10 +29422,14 @@
         <v>-3669427.544215991</v>
       </c>
       <c r="H875" t="n">
-        <v>0</v>
-      </c>
-      <c r="I875" t="inlineStr"/>
-      <c r="J875" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I875" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="J875" t="n">
+        <v>46.6</v>
+      </c>
       <c r="K875" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29489,10 +29463,14 @@
         <v>-3668770.008515991</v>
       </c>
       <c r="H876" t="n">
-        <v>0</v>
-      </c>
-      <c r="I876" t="inlineStr"/>
-      <c r="J876" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I876" t="n">
+        <v>47</v>
+      </c>
+      <c r="J876" t="n">
+        <v>46.6</v>
+      </c>
       <c r="K876" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29526,10 +29504,14 @@
         <v>-3709594.857215991</v>
       </c>
       <c r="H877" t="n">
-        <v>0</v>
-      </c>
-      <c r="I877" t="inlineStr"/>
-      <c r="J877" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I877" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="J877" t="n">
+        <v>46.6</v>
+      </c>
       <c r="K877" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29563,10 +29545,14 @@
         <v>-3709594.857215991</v>
       </c>
       <c r="H878" t="n">
-        <v>0</v>
-      </c>
-      <c r="I878" t="inlineStr"/>
-      <c r="J878" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I878" t="n">
+        <v>47</v>
+      </c>
+      <c r="J878" t="n">
+        <v>46.6</v>
+      </c>
       <c r="K878" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29600,10 +29586,14 @@
         <v>-3709094.857215991</v>
       </c>
       <c r="H879" t="n">
-        <v>0</v>
-      </c>
-      <c r="I879" t="inlineStr"/>
-      <c r="J879" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I879" t="n">
+        <v>47</v>
+      </c>
+      <c r="J879" t="n">
+        <v>46.6</v>
+      </c>
       <c r="K879" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29637,10 +29627,14 @@
         <v>-3709094.857215991</v>
       </c>
       <c r="H880" t="n">
-        <v>0</v>
-      </c>
-      <c r="I880" t="inlineStr"/>
-      <c r="J880" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I880" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="J880" t="n">
+        <v>46.6</v>
+      </c>
       <c r="K880" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29674,10 +29668,14 @@
         <v>-3710399.792015991</v>
       </c>
       <c r="H881" t="n">
-        <v>0</v>
-      </c>
-      <c r="I881" t="inlineStr"/>
-      <c r="J881" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I881" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="J881" t="n">
+        <v>46.6</v>
+      </c>
       <c r="K881" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29711,10 +29709,14 @@
         <v>-3710118.320815991</v>
       </c>
       <c r="H882" t="n">
-        <v>0</v>
-      </c>
-      <c r="I882" t="inlineStr"/>
-      <c r="J882" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I882" t="n">
+        <v>46.8</v>
+      </c>
+      <c r="J882" t="n">
+        <v>46.6</v>
+      </c>
       <c r="K882" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29748,10 +29750,14 @@
         <v>-3710118.320815991</v>
       </c>
       <c r="H883" t="n">
-        <v>0</v>
-      </c>
-      <c r="I883" t="inlineStr"/>
-      <c r="J883" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I883" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="J883" t="n">
+        <v>46.6</v>
+      </c>
       <c r="K883" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29785,10 +29791,14 @@
         <v>-3710118.320815991</v>
       </c>
       <c r="H884" t="n">
-        <v>0</v>
-      </c>
-      <c r="I884" t="inlineStr"/>
-      <c r="J884" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I884" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="J884" t="n">
+        <v>46.6</v>
+      </c>
       <c r="K884" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29827,7 +29837,9 @@
       <c r="I885" t="n">
         <v>46.9</v>
       </c>
-      <c r="J885" t="inlineStr"/>
+      <c r="J885" t="n">
+        <v>46.6</v>
+      </c>
       <c r="K885" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29861,10 +29873,14 @@
         <v>-3638468.320815991</v>
       </c>
       <c r="H886" t="n">
-        <v>0</v>
-      </c>
-      <c r="I886" t="inlineStr"/>
-      <c r="J886" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I886" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="J886" t="n">
+        <v>46.6</v>
+      </c>
       <c r="K886" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29898,10 +29914,14 @@
         <v>-3638468.320815991</v>
       </c>
       <c r="H887" t="n">
-        <v>0</v>
-      </c>
-      <c r="I887" t="inlineStr"/>
-      <c r="J887" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I887" t="n">
+        <v>47</v>
+      </c>
+      <c r="J887" t="n">
+        <v>46.6</v>
+      </c>
       <c r="K887" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29935,10 +29955,14 @@
         <v>-3638468.320815991</v>
       </c>
       <c r="H888" t="n">
-        <v>0</v>
-      </c>
-      <c r="I888" t="inlineStr"/>
-      <c r="J888" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I888" t="n">
+        <v>47</v>
+      </c>
+      <c r="J888" t="n">
+        <v>46.6</v>
+      </c>
       <c r="K888" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29977,7 +30001,9 @@
       <c r="I889" t="n">
         <v>47</v>
       </c>
-      <c r="J889" t="inlineStr"/>
+      <c r="J889" t="n">
+        <v>46.6</v>
+      </c>
       <c r="K889" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30016,7 +30042,9 @@
       <c r="I890" t="n">
         <v>46.9</v>
       </c>
-      <c r="J890" t="inlineStr"/>
+      <c r="J890" t="n">
+        <v>46.6</v>
+      </c>
       <c r="K890" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30055,7 +30083,9 @@
       <c r="I891" t="n">
         <v>47</v>
       </c>
-      <c r="J891" t="inlineStr"/>
+      <c r="J891" t="n">
+        <v>46.6</v>
+      </c>
       <c r="K891" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30089,10 +30119,14 @@
         <v>-3639512.771115991</v>
       </c>
       <c r="H892" t="n">
-        <v>0</v>
-      </c>
-      <c r="I892" t="inlineStr"/>
-      <c r="J892" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I892" t="n">
+        <v>47</v>
+      </c>
+      <c r="J892" t="n">
+        <v>46.6</v>
+      </c>
       <c r="K892" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30131,7 +30165,9 @@
       <c r="I893" t="n">
         <v>47.1</v>
       </c>
-      <c r="J893" t="inlineStr"/>
+      <c r="J893" t="n">
+        <v>46.6</v>
+      </c>
       <c r="K893" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30165,10 +30201,14 @@
         <v>-3704889.985115991</v>
       </c>
       <c r="H894" t="n">
-        <v>0</v>
-      </c>
-      <c r="I894" t="inlineStr"/>
-      <c r="J894" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I894" t="n">
+        <v>47</v>
+      </c>
+      <c r="J894" t="n">
+        <v>46.6</v>
+      </c>
       <c r="K894" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30202,10 +30242,14 @@
         <v>-3704889.985115991</v>
       </c>
       <c r="H895" t="n">
-        <v>0</v>
-      </c>
-      <c r="I895" t="inlineStr"/>
-      <c r="J895" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I895" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="J895" t="n">
+        <v>46.6</v>
+      </c>
       <c r="K895" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30239,10 +30283,14 @@
         <v>-3705678.285115991</v>
       </c>
       <c r="H896" t="n">
-        <v>0</v>
-      </c>
-      <c r="I896" t="inlineStr"/>
-      <c r="J896" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I896" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="J896" t="n">
+        <v>46.6</v>
+      </c>
       <c r="K896" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30281,7 +30329,9 @@
       <c r="I897" t="n">
         <v>46.8</v>
       </c>
-      <c r="J897" t="inlineStr"/>
+      <c r="J897" t="n">
+        <v>46.6</v>
+      </c>
       <c r="K897" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30315,10 +30365,14 @@
         <v>-3677929.615115991</v>
       </c>
       <c r="H898" t="n">
-        <v>0</v>
-      </c>
-      <c r="I898" t="inlineStr"/>
-      <c r="J898" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I898" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="J898" t="n">
+        <v>46.6</v>
+      </c>
       <c r="K898" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30352,10 +30406,14 @@
         <v>-3684998.416615991</v>
       </c>
       <c r="H899" t="n">
-        <v>0</v>
-      </c>
-      <c r="I899" t="inlineStr"/>
-      <c r="J899" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I899" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="J899" t="n">
+        <v>46.6</v>
+      </c>
       <c r="K899" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30389,10 +30447,14 @@
         <v>-3684998.416615991</v>
       </c>
       <c r="H900" t="n">
-        <v>0</v>
-      </c>
-      <c r="I900" t="inlineStr"/>
-      <c r="J900" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I900" t="n">
+        <v>46.8</v>
+      </c>
+      <c r="J900" t="n">
+        <v>46.6</v>
+      </c>
       <c r="K900" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30426,10 +30488,14 @@
         <v>-3684998.416615991</v>
       </c>
       <c r="H901" t="n">
-        <v>0</v>
-      </c>
-      <c r="I901" t="inlineStr"/>
-      <c r="J901" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I901" t="n">
+        <v>46.8</v>
+      </c>
+      <c r="J901" t="n">
+        <v>46.6</v>
+      </c>
       <c r="K901" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30463,10 +30529,14 @@
         <v>-3684998.416615991</v>
       </c>
       <c r="H902" t="n">
-        <v>0</v>
-      </c>
-      <c r="I902" t="inlineStr"/>
-      <c r="J902" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I902" t="n">
+        <v>46.8</v>
+      </c>
+      <c r="J902" t="n">
+        <v>46.6</v>
+      </c>
       <c r="K902" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30500,10 +30570,14 @@
         <v>-3684465.437015991</v>
       </c>
       <c r="H903" t="n">
-        <v>0</v>
-      </c>
-      <c r="I903" t="inlineStr"/>
-      <c r="J903" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I903" t="n">
+        <v>46.8</v>
+      </c>
+      <c r="J903" t="n">
+        <v>46.6</v>
+      </c>
       <c r="K903" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30537,10 +30611,14 @@
         <v>-3683842.609815991</v>
       </c>
       <c r="H904" t="n">
-        <v>0</v>
-      </c>
-      <c r="I904" t="inlineStr"/>
-      <c r="J904" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I904" t="n">
+        <v>47</v>
+      </c>
+      <c r="J904" t="n">
+        <v>46.6</v>
+      </c>
       <c r="K904" t="inlineStr">
         <is>
           <t>매도 대기</t>
